--- a/data/aggregation method_1_updated.xlsx
+++ b/data/aggregation method_1_updated.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sunku\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\OneDrive_2024-02-01\Annual Area-based Poverty Map\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DE14F44-4585-42DA-9EAF-265169761921}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B901DD9-6FE1-45C6-9191-7C9F9CA8A3FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1869" uniqueCount="1196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2057" uniqueCount="1199">
   <si>
     <t>Kode Variabel</t>
   </si>
@@ -3608,6 +3608,15 @@
   </si>
   <si>
     <t>Proportion of villages having everyday public transport operations</t>
+  </si>
+  <si>
+    <t>aggregation</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>Sum</t>
   </si>
 </sst>
 </file>
@@ -4474,10 +4483,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H372"/>
+  <dimension ref="A1:I372"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A78" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="A182" workbookViewId="0">
+      <selection activeCell="H197" sqref="H197"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
@@ -4487,12 +4496,12 @@
     <col min="3" max="3" width="33.85546875" style="2" customWidth="1"/>
     <col min="4" max="5" width="0" style="3" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="13.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="86.140625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="75.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.7109375" style="1"/>
+    <col min="7" max="8" width="86.140625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="75.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4512,10 +4521,13 @@
         <v>5</v>
       </c>
       <c r="H1" s="2" t="s">
+        <v>1196</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -4529,9 +4541,9 @@
         <v>10</v>
       </c>
       <c r="F2" s="1"/>
-      <c r="H2" s="2"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I2" s="2"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -4545,9 +4557,9 @@
         <v>10</v>
       </c>
       <c r="F3" s="1"/>
-      <c r="H3" s="2"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I3" s="2"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
@@ -4561,9 +4573,9 @@
         <v>10</v>
       </c>
       <c r="F4" s="1"/>
-      <c r="H4" s="2"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I4" s="2"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>17</v>
       </c>
@@ -4577,9 +4589,9 @@
         <v>10</v>
       </c>
       <c r="F5" s="1"/>
-      <c r="H5" s="2"/>
-    </row>
-    <row r="6" spans="1:8" ht="48" x14ac:dyDescent="0.25">
+      <c r="I5" s="2"/>
+    </row>
+    <row r="6" spans="1:9" ht="48" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>20</v>
       </c>
@@ -4599,10 +4611,13 @@
         <v>25</v>
       </c>
       <c r="H6" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="I6" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="48" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="48" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>27</v>
       </c>
@@ -4621,9 +4636,12 @@
       <c r="G7" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="H7" s="2"/>
-    </row>
-    <row r="8" spans="1:8" ht="36" x14ac:dyDescent="0.25">
+      <c r="H7" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="I7" s="2"/>
+    </row>
+    <row r="8" spans="1:9" ht="36" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>31</v>
       </c>
@@ -4642,9 +4660,12 @@
       <c r="G8" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="H8" s="2"/>
-    </row>
-    <row r="9" spans="1:8" ht="36" x14ac:dyDescent="0.25">
+      <c r="H8" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="I8" s="2"/>
+    </row>
+    <row r="9" spans="1:9" ht="36" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>35</v>
       </c>
@@ -4663,9 +4684,12 @@
       <c r="G9" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="H9" s="2"/>
-    </row>
-    <row r="10" spans="1:8" ht="24" x14ac:dyDescent="0.25">
+      <c r="H9" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="I9" s="2"/>
+    </row>
+    <row r="10" spans="1:9" ht="24" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>39</v>
       </c>
@@ -4684,9 +4708,12 @@
       <c r="G10" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="H10" s="2"/>
-    </row>
-    <row r="11" spans="1:8" ht="24" x14ac:dyDescent="0.25">
+      <c r="H10" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="I10" s="2"/>
+    </row>
+    <row r="11" spans="1:9" ht="24" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>43</v>
       </c>
@@ -4705,9 +4732,12 @@
       <c r="G11" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="H11" s="2"/>
-    </row>
-    <row r="12" spans="1:8" ht="36" x14ac:dyDescent="0.25">
+      <c r="H11" s="2" t="s">
+        <v>1197</v>
+      </c>
+      <c r="I11" s="2"/>
+    </row>
+    <row r="12" spans="1:9" ht="36" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>48</v>
       </c>
@@ -4726,9 +4756,12 @@
       <c r="G12" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="H12" s="2"/>
-    </row>
-    <row r="13" spans="1:8" ht="24" x14ac:dyDescent="0.25">
+      <c r="H12" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="I12" s="2"/>
+    </row>
+    <row r="13" spans="1:9" ht="24" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>52</v>
       </c>
@@ -4747,11 +4780,14 @@
       <c r="G13" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="H13" s="4" t="s">
+      <c r="H13" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="I13" s="4" t="s">
         <v>1145</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="24" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="24" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>57</v>
       </c>
@@ -4770,9 +4806,12 @@
       <c r="G14" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="H14" s="4"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H14" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="I14" s="4"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>61</v>
       </c>
@@ -4791,9 +4830,12 @@
       <c r="G15" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="H15" s="4"/>
-    </row>
-    <row r="16" spans="1:8" ht="24" x14ac:dyDescent="0.25">
+      <c r="H15" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="I15" s="4"/>
+    </row>
+    <row r="16" spans="1:9" ht="24" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>65</v>
       </c>
@@ -4812,9 +4854,12 @@
       <c r="G16" s="2" t="s">
         <v>1146</v>
       </c>
-      <c r="H16" s="2"/>
-    </row>
-    <row r="17" spans="1:8" ht="36" x14ac:dyDescent="0.25">
+      <c r="H16" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="I16" s="2"/>
+    </row>
+    <row r="17" spans="1:9" ht="36" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>68</v>
       </c>
@@ -4833,9 +4878,12 @@
       <c r="G17" s="2" t="s">
         <v>1147</v>
       </c>
-      <c r="H17" s="2"/>
-    </row>
-    <row r="18" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="H17" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="I17" s="2"/>
+    </row>
+    <row r="18" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>71</v>
       </c>
@@ -4855,10 +4903,13 @@
         <v>74</v>
       </c>
       <c r="H18" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="I18" s="2" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>76</v>
       </c>
@@ -4877,9 +4928,12 @@
       <c r="G19" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="H19" s="2"/>
-    </row>
-    <row r="20" spans="1:8" ht="24" x14ac:dyDescent="0.25">
+      <c r="H19" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="I19" s="2"/>
+    </row>
+    <row r="20" spans="1:9" ht="24" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>80</v>
       </c>
@@ -4898,9 +4952,12 @@
       <c r="G20" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="H20" s="2"/>
-    </row>
-    <row r="21" spans="1:8" ht="24" x14ac:dyDescent="0.25">
+      <c r="H20" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="I20" s="2"/>
+    </row>
+    <row r="21" spans="1:9" ht="24" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>84</v>
       </c>
@@ -4919,9 +4976,12 @@
       <c r="G21" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="H21" s="2"/>
-    </row>
-    <row r="22" spans="1:8" ht="24" x14ac:dyDescent="0.25">
+      <c r="H21" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="I21" s="2"/>
+    </row>
+    <row r="22" spans="1:9" ht="24" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>88</v>
       </c>
@@ -4940,9 +5000,12 @@
       <c r="G22" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="H22" s="2"/>
-    </row>
-    <row r="23" spans="1:8" ht="24" x14ac:dyDescent="0.25">
+      <c r="H22" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="I22" s="2"/>
+    </row>
+    <row r="23" spans="1:9" ht="24" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>92</v>
       </c>
@@ -4961,9 +5024,12 @@
       <c r="G23" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="H23" s="2"/>
-    </row>
-    <row r="24" spans="1:8" ht="24" x14ac:dyDescent="0.25">
+      <c r="H23" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="I23" s="2"/>
+    </row>
+    <row r="24" spans="1:9" ht="24" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>96</v>
       </c>
@@ -4982,9 +5048,12 @@
       <c r="G24" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="H24" s="2"/>
-    </row>
-    <row r="25" spans="1:8" ht="24" x14ac:dyDescent="0.25">
+      <c r="H24" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="I24" s="2"/>
+    </row>
+    <row r="25" spans="1:9" ht="24" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>100</v>
       </c>
@@ -5003,9 +5072,12 @@
       <c r="G25" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="H25" s="2"/>
-    </row>
-    <row r="26" spans="1:8" ht="24" x14ac:dyDescent="0.25">
+      <c r="H25" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="I25" s="2"/>
+    </row>
+    <row r="26" spans="1:9" ht="24" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>104</v>
       </c>
@@ -5024,9 +5096,12 @@
       <c r="G26" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="H26" s="2"/>
-    </row>
-    <row r="27" spans="1:8" ht="24" x14ac:dyDescent="0.25">
+      <c r="H26" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="I26" s="2"/>
+    </row>
+    <row r="27" spans="1:9" ht="24" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>107</v>
       </c>
@@ -5045,9 +5120,12 @@
       <c r="G27" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="H27" s="2"/>
-    </row>
-    <row r="28" spans="1:8" ht="24" x14ac:dyDescent="0.25">
+      <c r="H27" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="I27" s="2"/>
+    </row>
+    <row r="28" spans="1:9" ht="24" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>110</v>
       </c>
@@ -5066,9 +5144,12 @@
       <c r="G28" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="H28" s="2"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H28" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="I28" s="2"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>114</v>
       </c>
@@ -5087,9 +5168,12 @@
       <c r="G29" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="H29" s="2"/>
-    </row>
-    <row r="30" spans="1:8" ht="24" x14ac:dyDescent="0.25">
+      <c r="H29" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="I29" s="2"/>
+    </row>
+    <row r="30" spans="1:9" ht="24" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>117</v>
       </c>
@@ -5108,9 +5192,12 @@
       <c r="G30" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="H30" s="2"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H30" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="I30" s="2"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>120</v>
       </c>
@@ -5129,9 +5216,12 @@
       <c r="G31" s="2" t="s">
         <v>1148</v>
       </c>
-      <c r="H31" s="2"/>
-    </row>
-    <row r="32" spans="1:8" ht="24" x14ac:dyDescent="0.25">
+      <c r="H31" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="I31" s="2"/>
+    </row>
+    <row r="32" spans="1:9" ht="24" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>123</v>
       </c>
@@ -5153,9 +5243,12 @@
       <c r="G32" s="2" t="s">
         <v>1149</v>
       </c>
-      <c r="H32" s="2"/>
-    </row>
-    <row r="33" spans="1:8" ht="36" x14ac:dyDescent="0.25">
+      <c r="H32" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="I32" s="2"/>
+    </row>
+    <row r="33" spans="1:9" ht="36" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>128</v>
       </c>
@@ -5174,9 +5267,12 @@
       <c r="G33" s="2" t="s">
         <v>1150</v>
       </c>
-      <c r="H33" s="2"/>
-    </row>
-    <row r="34" spans="1:8" ht="24" x14ac:dyDescent="0.25">
+      <c r="H33" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="I33" s="2"/>
+    </row>
+    <row r="34" spans="1:9" ht="24" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>131</v>
       </c>
@@ -5195,9 +5291,12 @@
       <c r="G34" s="2" t="s">
         <v>1151</v>
       </c>
-      <c r="H34" s="2"/>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H34" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="I34" s="2"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>134</v>
       </c>
@@ -5216,9 +5315,12 @@
       <c r="G35" s="2" t="s">
         <v>1152</v>
       </c>
-      <c r="H35" s="2"/>
-    </row>
-    <row r="36" spans="1:8" ht="24" x14ac:dyDescent="0.25">
+      <c r="H35" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="I35" s="2"/>
+    </row>
+    <row r="36" spans="1:9" ht="24" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>137</v>
       </c>
@@ -5237,9 +5339,12 @@
       <c r="G36" s="2" t="s">
         <v>1153</v>
       </c>
-      <c r="H36" s="2"/>
-    </row>
-    <row r="37" spans="1:8" ht="24" x14ac:dyDescent="0.25">
+      <c r="H36" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="I36" s="2"/>
+    </row>
+    <row r="37" spans="1:9" ht="24" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>140</v>
       </c>
@@ -5258,9 +5363,12 @@
       <c r="G37" s="2" t="s">
         <v>1154</v>
       </c>
-      <c r="H37" s="2"/>
-    </row>
-    <row r="38" spans="1:8" ht="24" x14ac:dyDescent="0.25">
+      <c r="H37" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="I37" s="2"/>
+    </row>
+    <row r="38" spans="1:9" ht="24" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>143</v>
       </c>
@@ -5279,9 +5387,12 @@
       <c r="G38" s="2" t="s">
         <v>1155</v>
       </c>
-      <c r="H38" s="2"/>
-    </row>
-    <row r="39" spans="1:8" ht="24" x14ac:dyDescent="0.25">
+      <c r="H38" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="I38" s="2"/>
+    </row>
+    <row r="39" spans="1:9" ht="24" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>146</v>
       </c>
@@ -5300,9 +5411,12 @@
       <c r="G39" s="2" t="s">
         <v>1156</v>
       </c>
-      <c r="H39" s="2"/>
-    </row>
-    <row r="40" spans="1:8" ht="48" x14ac:dyDescent="0.25">
+      <c r="H39" s="2" t="s">
+        <v>1198</v>
+      </c>
+      <c r="I39" s="2"/>
+    </row>
+    <row r="40" spans="1:9" ht="48" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>149</v>
       </c>
@@ -5321,9 +5435,12 @@
       <c r="G40" s="2" t="s">
         <v>1157</v>
       </c>
-      <c r="H40" s="2"/>
-    </row>
-    <row r="41" spans="1:8" ht="24" x14ac:dyDescent="0.25">
+      <c r="H40" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="I40" s="2"/>
+    </row>
+    <row r="41" spans="1:9" ht="24" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>152</v>
       </c>
@@ -5342,9 +5459,12 @@
       <c r="G41" s="2" t="s">
         <v>1158</v>
       </c>
-      <c r="H41" s="2"/>
-    </row>
-    <row r="42" spans="1:8" ht="24" x14ac:dyDescent="0.25">
+      <c r="H41" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I41" s="2"/>
+    </row>
+    <row r="42" spans="1:9" ht="24" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>155</v>
       </c>
@@ -5363,9 +5483,12 @@
       <c r="G42" s="2" t="s">
         <v>1159</v>
       </c>
-      <c r="H42" s="2"/>
-    </row>
-    <row r="43" spans="1:8" ht="24" x14ac:dyDescent="0.25">
+      <c r="H42" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I42" s="2"/>
+    </row>
+    <row r="43" spans="1:9" ht="24" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>158</v>
       </c>
@@ -5384,9 +5507,12 @@
       <c r="G43" s="2" t="s">
         <v>1160</v>
       </c>
-      <c r="H43" s="2"/>
-    </row>
-    <row r="44" spans="1:8" ht="24" x14ac:dyDescent="0.25">
+      <c r="H43" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="I43" s="2"/>
+    </row>
+    <row r="44" spans="1:9" ht="24" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>161</v>
       </c>
@@ -5405,9 +5531,12 @@
       <c r="G44" s="2" t="s">
         <v>1161</v>
       </c>
-      <c r="H44" s="2"/>
-    </row>
-    <row r="45" spans="1:8" ht="24" x14ac:dyDescent="0.25">
+      <c r="H44" s="2" t="s">
+        <v>1198</v>
+      </c>
+      <c r="I44" s="2"/>
+    </row>
+    <row r="45" spans="1:9" ht="24" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>164</v>
       </c>
@@ -5426,9 +5555,12 @@
       <c r="G45" s="2" t="s">
         <v>1162</v>
       </c>
-      <c r="H45" s="2"/>
-    </row>
-    <row r="46" spans="1:8" ht="24" x14ac:dyDescent="0.25">
+      <c r="H45" s="2" t="s">
+        <v>1198</v>
+      </c>
+      <c r="I45" s="2"/>
+    </row>
+    <row r="46" spans="1:9" ht="24" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>167</v>
       </c>
@@ -5447,9 +5579,12 @@
       <c r="G46" s="2" t="s">
         <v>1163</v>
       </c>
-      <c r="H46" s="2"/>
-    </row>
-    <row r="47" spans="1:8" ht="24" x14ac:dyDescent="0.25">
+      <c r="H46" s="2" t="s">
+        <v>1197</v>
+      </c>
+      <c r="I46" s="2"/>
+    </row>
+    <row r="47" spans="1:9" ht="24" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>171</v>
       </c>
@@ -5468,9 +5603,12 @@
       <c r="G47" s="2" t="s">
         <v>1164</v>
       </c>
-      <c r="H47" s="2"/>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H47" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="I47" s="2"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>174</v>
       </c>
@@ -5489,9 +5627,12 @@
       <c r="G48" s="2" t="s">
         <v>1161</v>
       </c>
-      <c r="H48" s="2"/>
-    </row>
-    <row r="49" spans="1:8" ht="24" x14ac:dyDescent="0.25">
+      <c r="H48" s="2" t="s">
+        <v>1198</v>
+      </c>
+      <c r="I48" s="2"/>
+    </row>
+    <row r="49" spans="1:9" ht="24" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>177</v>
       </c>
@@ -5510,9 +5651,12 @@
       <c r="G49" s="2" t="s">
         <v>1162</v>
       </c>
-      <c r="H49" s="2"/>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H49" s="2" t="s">
+        <v>1198</v>
+      </c>
+      <c r="I49" s="2"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>180</v>
       </c>
@@ -5531,9 +5675,12 @@
       <c r="G50" s="2" t="s">
         <v>1163</v>
       </c>
-      <c r="H50" s="2"/>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H50" s="2" t="s">
+        <v>1197</v>
+      </c>
+      <c r="I50" s="2"/>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>183</v>
       </c>
@@ -5552,9 +5699,12 @@
       <c r="G51" s="2" t="s">
         <v>1164</v>
       </c>
-      <c r="H51" s="2"/>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H51" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="I51" s="2"/>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>186</v>
       </c>
@@ -5573,9 +5723,12 @@
       <c r="G52" s="2" t="s">
         <v>1161</v>
       </c>
-      <c r="H52" s="2"/>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H52" s="2" t="s">
+        <v>1198</v>
+      </c>
+      <c r="I52" s="2"/>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>189</v>
       </c>
@@ -5594,9 +5747,12 @@
       <c r="G53" s="2" t="s">
         <v>1162</v>
       </c>
-      <c r="H53" s="2"/>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H53" s="2" t="s">
+        <v>1198</v>
+      </c>
+      <c r="I53" s="2"/>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>192</v>
       </c>
@@ -5615,9 +5771,12 @@
       <c r="G54" s="2" t="s">
         <v>1163</v>
       </c>
-      <c r="H54" s="2"/>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H54" s="2" t="s">
+        <v>1197</v>
+      </c>
+      <c r="I54" s="2"/>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>195</v>
       </c>
@@ -5636,9 +5795,12 @@
       <c r="G55" s="2" t="s">
         <v>1164</v>
       </c>
-      <c r="H55" s="2"/>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H55" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="I55" s="2"/>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>198</v>
       </c>
@@ -5657,9 +5819,12 @@
       <c r="G56" s="2" t="s">
         <v>1161</v>
       </c>
-      <c r="H56" s="2"/>
-    </row>
-    <row r="57" spans="1:8" ht="24" x14ac:dyDescent="0.25">
+      <c r="H56" s="2" t="s">
+        <v>1198</v>
+      </c>
+      <c r="I56" s="2"/>
+    </row>
+    <row r="57" spans="1:9" ht="24" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>201</v>
       </c>
@@ -5678,9 +5843,12 @@
       <c r="G57" s="2" t="s">
         <v>1162</v>
       </c>
-      <c r="H57" s="2"/>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H57" s="2" t="s">
+        <v>1198</v>
+      </c>
+      <c r="I57" s="2"/>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>204</v>
       </c>
@@ -5699,9 +5867,12 @@
       <c r="G58" s="2" t="s">
         <v>1163</v>
       </c>
-      <c r="H58" s="2"/>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H58" s="2" t="s">
+        <v>1197</v>
+      </c>
+      <c r="I58" s="2"/>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>207</v>
       </c>
@@ -5720,9 +5891,12 @@
       <c r="G59" s="2" t="s">
         <v>1164</v>
       </c>
-      <c r="H59" s="2"/>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H59" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="I59" s="2"/>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>210</v>
       </c>
@@ -5741,9 +5915,12 @@
       <c r="G60" s="2" t="s">
         <v>1161</v>
       </c>
-      <c r="H60" s="2"/>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H60" s="2" t="s">
+        <v>1198</v>
+      </c>
+      <c r="I60" s="2"/>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>213</v>
       </c>
@@ -5762,9 +5939,12 @@
       <c r="G61" s="2" t="s">
         <v>1162</v>
       </c>
-      <c r="H61" s="2"/>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H61" s="2" t="s">
+        <v>1198</v>
+      </c>
+      <c r="I61" s="2"/>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>216</v>
       </c>
@@ -5783,9 +5963,12 @@
       <c r="G62" s="2" t="s">
         <v>1163</v>
       </c>
-      <c r="H62" s="2"/>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H62" s="2" t="s">
+        <v>1197</v>
+      </c>
+      <c r="I62" s="2"/>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>219</v>
       </c>
@@ -5804,9 +5987,12 @@
       <c r="G63" s="2" t="s">
         <v>1164</v>
       </c>
-      <c r="H63" s="2"/>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H63" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="I63" s="2"/>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>222</v>
       </c>
@@ -5825,9 +6011,12 @@
       <c r="G64" s="2" t="s">
         <v>1161</v>
       </c>
-      <c r="H64" s="2"/>
-    </row>
-    <row r="65" spans="1:8" ht="24" x14ac:dyDescent="0.25">
+      <c r="H64" s="2" t="s">
+        <v>1198</v>
+      </c>
+      <c r="I64" s="2"/>
+    </row>
+    <row r="65" spans="1:9" ht="24" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>225</v>
       </c>
@@ -5846,9 +6035,12 @@
       <c r="G65" s="2" t="s">
         <v>1162</v>
       </c>
-      <c r="H65" s="2"/>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H65" s="2" t="s">
+        <v>1198</v>
+      </c>
+      <c r="I65" s="2"/>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>228</v>
       </c>
@@ -5867,9 +6059,12 @@
       <c r="G66" s="2" t="s">
         <v>1163</v>
       </c>
-      <c r="H66" s="2"/>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H66" s="2" t="s">
+        <v>1197</v>
+      </c>
+      <c r="I66" s="2"/>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>231</v>
       </c>
@@ -5888,9 +6083,12 @@
       <c r="G67" s="2" t="s">
         <v>1164</v>
       </c>
-      <c r="H67" s="2"/>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H67" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="I67" s="2"/>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>234</v>
       </c>
@@ -5909,9 +6107,12 @@
       <c r="G68" s="2" t="s">
         <v>1161</v>
       </c>
-      <c r="H68" s="2"/>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H68" s="2" t="s">
+        <v>1198</v>
+      </c>
+      <c r="I68" s="2"/>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>237</v>
       </c>
@@ -5930,9 +6131,12 @@
       <c r="G69" s="2" t="s">
         <v>1162</v>
       </c>
-      <c r="H69" s="2"/>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H69" s="2" t="s">
+        <v>1198</v>
+      </c>
+      <c r="I69" s="2"/>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>240</v>
       </c>
@@ -5951,9 +6155,12 @@
       <c r="G70" s="2" t="s">
         <v>1163</v>
       </c>
-      <c r="H70" s="2"/>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H70" s="2" t="s">
+        <v>1197</v>
+      </c>
+      <c r="I70" s="2"/>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>243</v>
       </c>
@@ -5972,9 +6179,12 @@
       <c r="G71" s="2" t="s">
         <v>1164</v>
       </c>
-      <c r="H71" s="2"/>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H71" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="I71" s="2"/>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>246</v>
       </c>
@@ -5993,9 +6203,12 @@
       <c r="G72" s="2" t="s">
         <v>1161</v>
       </c>
-      <c r="H72" s="2"/>
-    </row>
-    <row r="73" spans="1:8" ht="24" x14ac:dyDescent="0.25">
+      <c r="H72" s="2" t="s">
+        <v>1198</v>
+      </c>
+      <c r="I72" s="2"/>
+    </row>
+    <row r="73" spans="1:9" ht="24" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>249</v>
       </c>
@@ -6014,9 +6227,12 @@
       <c r="G73" s="2" t="s">
         <v>1162</v>
       </c>
-      <c r="H73" s="2"/>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H73" s="2" t="s">
+        <v>1198</v>
+      </c>
+      <c r="I73" s="2"/>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>252</v>
       </c>
@@ -6035,9 +6251,12 @@
       <c r="G74" s="2" t="s">
         <v>1163</v>
       </c>
-      <c r="H74" s="2"/>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H74" s="2" t="s">
+        <v>1197</v>
+      </c>
+      <c r="I74" s="2"/>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>255</v>
       </c>
@@ -6056,9 +6275,12 @@
       <c r="G75" s="2" t="s">
         <v>1164</v>
       </c>
-      <c r="H75" s="2"/>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H75" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="I75" s="2"/>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>258</v>
       </c>
@@ -6077,9 +6299,12 @@
       <c r="G76" s="2" t="s">
         <v>1161</v>
       </c>
-      <c r="H76" s="2"/>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H76" s="2" t="s">
+        <v>1198</v>
+      </c>
+      <c r="I76" s="2"/>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>261</v>
       </c>
@@ -6098,9 +6323,12 @@
       <c r="G77" s="2" t="s">
         <v>1162</v>
       </c>
-      <c r="H77" s="2"/>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H77" s="2" t="s">
+        <v>1198</v>
+      </c>
+      <c r="I77" s="2"/>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>264</v>
       </c>
@@ -6119,9 +6347,12 @@
       <c r="G78" s="2" t="s">
         <v>1163</v>
       </c>
-      <c r="H78" s="2"/>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H78" s="2" t="s">
+        <v>1197</v>
+      </c>
+      <c r="I78" s="2"/>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>267</v>
       </c>
@@ -6140,9 +6371,12 @@
       <c r="G79" s="2" t="s">
         <v>1164</v>
       </c>
-      <c r="H79" s="2"/>
-    </row>
-    <row r="80" spans="1:8" ht="24" x14ac:dyDescent="0.25">
+      <c r="H79" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="I79" s="2"/>
+    </row>
+    <row r="80" spans="1:9" ht="24" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>270</v>
       </c>
@@ -6161,9 +6395,12 @@
       <c r="G80" s="2" t="s">
         <v>1161</v>
       </c>
-      <c r="H80" s="2"/>
-    </row>
-    <row r="81" spans="1:8" ht="24" x14ac:dyDescent="0.25">
+      <c r="H80" s="2" t="s">
+        <v>1198</v>
+      </c>
+      <c r="I80" s="2"/>
+    </row>
+    <row r="81" spans="1:9" ht="24" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>273</v>
       </c>
@@ -6182,9 +6419,12 @@
       <c r="G81" s="2" t="s">
         <v>1161</v>
       </c>
-      <c r="H81" s="2"/>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H81" s="2" t="s">
+        <v>1198</v>
+      </c>
+      <c r="I81" s="2"/>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>276</v>
       </c>
@@ -6203,9 +6443,12 @@
       <c r="G82" s="2" t="s">
         <v>1163</v>
       </c>
-      <c r="H82" s="2"/>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H82" s="2" t="s">
+        <v>1197</v>
+      </c>
+      <c r="I82" s="2"/>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>279</v>
       </c>
@@ -6224,9 +6467,12 @@
       <c r="G83" s="2" t="s">
         <v>1164</v>
       </c>
-      <c r="H83" s="2"/>
-    </row>
-    <row r="84" spans="1:8" ht="24" x14ac:dyDescent="0.25">
+      <c r="H83" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="I83" s="2"/>
+    </row>
+    <row r="84" spans="1:9" ht="24" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>282</v>
       </c>
@@ -6245,9 +6491,12 @@
       <c r="G84" s="2" t="s">
         <v>1161</v>
       </c>
-      <c r="H84" s="2"/>
-    </row>
-    <row r="85" spans="1:8" ht="24" x14ac:dyDescent="0.25">
+      <c r="H84" s="2" t="s">
+        <v>1198</v>
+      </c>
+      <c r="I84" s="2"/>
+    </row>
+    <row r="85" spans="1:9" ht="24" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>285</v>
       </c>
@@ -6266,9 +6515,12 @@
       <c r="G85" s="2" t="s">
         <v>1162</v>
       </c>
-      <c r="H85" s="2"/>
-    </row>
-    <row r="86" spans="1:8" ht="24" x14ac:dyDescent="0.25">
+      <c r="H85" s="2" t="s">
+        <v>1198</v>
+      </c>
+      <c r="I85" s="2"/>
+    </row>
+    <row r="86" spans="1:9" ht="24" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>288</v>
       </c>
@@ -6287,9 +6539,12 @@
       <c r="G86" s="2" t="s">
         <v>1163</v>
       </c>
-      <c r="H86" s="2"/>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H86" s="2" t="s">
+        <v>1197</v>
+      </c>
+      <c r="I86" s="2"/>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>291</v>
       </c>
@@ -6308,9 +6563,12 @@
       <c r="G87" s="2" t="s">
         <v>1164</v>
       </c>
-      <c r="H87" s="2"/>
-    </row>
-    <row r="88" spans="1:8" ht="24" x14ac:dyDescent="0.25">
+      <c r="H87" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="I87" s="2"/>
+    </row>
+    <row r="88" spans="1:9" ht="24" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>294</v>
       </c>
@@ -6329,9 +6587,12 @@
       <c r="G88" s="2" t="s">
         <v>1165</v>
       </c>
-      <c r="H88" s="2"/>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H88" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="I88" s="2"/>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>297</v>
       </c>
@@ -6350,9 +6611,12 @@
       <c r="G89" s="2" t="s">
         <v>1166</v>
       </c>
-      <c r="H89" s="2"/>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H89" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I89" s="2"/>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>300</v>
       </c>
@@ -6371,9 +6635,12 @@
       <c r="G90" s="2" t="s">
         <v>1167</v>
       </c>
-      <c r="H90" s="2"/>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H90" s="2" t="s">
+        <v>1197</v>
+      </c>
+      <c r="I90" s="2"/>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>303</v>
       </c>
@@ -6392,9 +6659,12 @@
       <c r="G91" s="2" t="s">
         <v>1164</v>
       </c>
-      <c r="H91" s="2"/>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H91" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="I91" s="2"/>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>306</v>
       </c>
@@ -6413,9 +6683,12 @@
       <c r="G92" s="2" t="s">
         <v>1166</v>
       </c>
-      <c r="H92" s="2"/>
-    </row>
-    <row r="93" spans="1:8" ht="24" x14ac:dyDescent="0.25">
+      <c r="H92" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I92" s="2"/>
+    </row>
+    <row r="93" spans="1:9" ht="24" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>309</v>
       </c>
@@ -6434,9 +6707,12 @@
       <c r="G93" s="2" t="s">
         <v>1167</v>
       </c>
-      <c r="H93" s="2"/>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H93" s="2" t="s">
+        <v>1197</v>
+      </c>
+      <c r="I93" s="2"/>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>312</v>
       </c>
@@ -6455,9 +6731,12 @@
       <c r="G94" s="2" t="s">
         <v>1164</v>
       </c>
-      <c r="H94" s="2"/>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H94" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="I94" s="2"/>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>315</v>
       </c>
@@ -6476,9 +6755,12 @@
       <c r="G95" s="2" t="s">
         <v>1168</v>
       </c>
-      <c r="H95" s="2"/>
-    </row>
-    <row r="96" spans="1:8" ht="24" x14ac:dyDescent="0.25">
+      <c r="H95" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I95" s="2"/>
+    </row>
+    <row r="96" spans="1:9" ht="24" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>318</v>
       </c>
@@ -6497,9 +6779,12 @@
       <c r="G96" s="2" t="s">
         <v>1169</v>
       </c>
-      <c r="H96" s="2"/>
-    </row>
-    <row r="97" spans="1:8" ht="24" x14ac:dyDescent="0.25">
+      <c r="H96" s="2" t="s">
+        <v>1197</v>
+      </c>
+      <c r="I96" s="2"/>
+    </row>
+    <row r="97" spans="1:9" ht="24" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>321</v>
       </c>
@@ -6518,9 +6803,12 @@
       <c r="G97" s="2" t="s">
         <v>1164</v>
       </c>
-      <c r="H97" s="2"/>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H97" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="I97" s="2"/>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>324</v>
       </c>
@@ -6539,9 +6827,12 @@
       <c r="G98" s="2" t="s">
         <v>1168</v>
       </c>
-      <c r="H98" s="2"/>
-    </row>
-    <row r="99" spans="1:8" ht="24" x14ac:dyDescent="0.25">
+      <c r="H98" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I98" s="2"/>
+    </row>
+    <row r="99" spans="1:9" ht="24" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>327</v>
       </c>
@@ -6560,9 +6851,12 @@
       <c r="G99" s="2" t="s">
         <v>1169</v>
       </c>
-      <c r="H99" s="2"/>
-    </row>
-    <row r="100" spans="1:8" ht="24" x14ac:dyDescent="0.25">
+      <c r="H99" s="2" t="s">
+        <v>1197</v>
+      </c>
+      <c r="I99" s="2"/>
+    </row>
+    <row r="100" spans="1:9" ht="24" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>330</v>
       </c>
@@ -6581,9 +6875,12 @@
       <c r="G100" s="2" t="s">
         <v>1164</v>
       </c>
-      <c r="H100" s="2"/>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H100" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="I100" s="2"/>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>333</v>
       </c>
@@ -6602,9 +6899,12 @@
       <c r="G101" s="2" t="s">
         <v>1168</v>
       </c>
-      <c r="H101" s="2"/>
-    </row>
-    <row r="102" spans="1:8" ht="24" x14ac:dyDescent="0.25">
+      <c r="H101" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I101" s="2"/>
+    </row>
+    <row r="102" spans="1:9" ht="24" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>336</v>
       </c>
@@ -6623,9 +6923,12 @@
       <c r="G102" s="2" t="s">
         <v>1169</v>
       </c>
-      <c r="H102" s="2"/>
-    </row>
-    <row r="103" spans="1:8" ht="24" x14ac:dyDescent="0.25">
+      <c r="H102" s="2" t="s">
+        <v>1197</v>
+      </c>
+      <c r="I102" s="2"/>
+    </row>
+    <row r="103" spans="1:9" ht="24" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>339</v>
       </c>
@@ -6644,9 +6947,12 @@
       <c r="G103" s="2" t="s">
         <v>1164</v>
       </c>
-      <c r="H103" s="2"/>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H103" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="I103" s="2"/>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>342</v>
       </c>
@@ -6665,9 +6971,12 @@
       <c r="G104" s="2" t="s">
         <v>1170</v>
       </c>
-      <c r="H104" s="2"/>
-    </row>
-    <row r="105" spans="1:8" ht="24" x14ac:dyDescent="0.25">
+      <c r="H104" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I104" s="2"/>
+    </row>
+    <row r="105" spans="1:9" ht="24" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>345</v>
       </c>
@@ -6686,9 +6995,12 @@
       <c r="G105" s="2" t="s">
         <v>1171</v>
       </c>
-      <c r="H105" s="2"/>
-    </row>
-    <row r="106" spans="1:8" ht="24" x14ac:dyDescent="0.25">
+      <c r="H105" s="2" t="s">
+        <v>1197</v>
+      </c>
+      <c r="I105" s="2"/>
+    </row>
+    <row r="106" spans="1:9" ht="24" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>348</v>
       </c>
@@ -6707,9 +7019,12 @@
       <c r="G106" s="2" t="s">
         <v>1164</v>
       </c>
-      <c r="H106" s="2"/>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H106" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="I106" s="2"/>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>351</v>
       </c>
@@ -6728,9 +7043,12 @@
       <c r="G107" s="2" t="s">
         <v>1172</v>
       </c>
-      <c r="H107" s="2"/>
-    </row>
-    <row r="108" spans="1:8" ht="24" x14ac:dyDescent="0.25">
+      <c r="H107" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I107" s="2"/>
+    </row>
+    <row r="108" spans="1:9" ht="24" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>354</v>
       </c>
@@ -6749,9 +7067,12 @@
       <c r="G108" s="2" t="s">
         <v>1173</v>
       </c>
-      <c r="H108" s="2"/>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H108" s="2" t="s">
+        <v>1197</v>
+      </c>
+      <c r="I108" s="2"/>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>357</v>
       </c>
@@ -6770,9 +7091,12 @@
       <c r="G109" s="2" t="s">
         <v>1164</v>
       </c>
-      <c r="H109" s="2"/>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H109" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="I109" s="2"/>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>360</v>
       </c>
@@ -6791,9 +7115,12 @@
       <c r="G110" s="2" t="s">
         <v>1174</v>
       </c>
-      <c r="H110" s="2"/>
-    </row>
-    <row r="111" spans="1:8" ht="24" x14ac:dyDescent="0.25">
+      <c r="H110" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I110" s="2"/>
+    </row>
+    <row r="111" spans="1:9" ht="24" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>363</v>
       </c>
@@ -6812,9 +7139,12 @@
       <c r="G111" s="2" t="s">
         <v>1175</v>
       </c>
-      <c r="H111" s="2"/>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H111" s="2" t="s">
+        <v>1197</v>
+      </c>
+      <c r="I111" s="2"/>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>364</v>
       </c>
@@ -6833,9 +7163,12 @@
       <c r="G112" s="2" t="s">
         <v>1164</v>
       </c>
-      <c r="H112" s="2"/>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H112" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="I112" s="2"/>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>367</v>
       </c>
@@ -6854,9 +7187,12 @@
       <c r="G113" s="2" t="s">
         <v>1176</v>
       </c>
-      <c r="H113" s="2"/>
-    </row>
-    <row r="114" spans="1:8" ht="24" x14ac:dyDescent="0.25">
+      <c r="H113" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I113" s="2"/>
+    </row>
+    <row r="114" spans="1:9" ht="24" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>370</v>
       </c>
@@ -6875,9 +7211,12 @@
       <c r="G114" s="2" t="s">
         <v>1177</v>
       </c>
-      <c r="H114" s="2"/>
-    </row>
-    <row r="115" spans="1:8" ht="24" x14ac:dyDescent="0.25">
+      <c r="H114" s="2" t="s">
+        <v>1197</v>
+      </c>
+      <c r="I114" s="2"/>
+    </row>
+    <row r="115" spans="1:9" ht="24" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>373</v>
       </c>
@@ -6896,9 +7235,12 @@
       <c r="G115" s="2" t="s">
         <v>1164</v>
       </c>
-      <c r="H115" s="2"/>
-    </row>
-    <row r="116" spans="1:8" ht="24" x14ac:dyDescent="0.25">
+      <c r="H115" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="I115" s="2"/>
+    </row>
+    <row r="116" spans="1:9" ht="24" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>376</v>
       </c>
@@ -6917,9 +7259,12 @@
       <c r="G116" s="2" t="s">
         <v>1178</v>
       </c>
-      <c r="H116" s="2"/>
-    </row>
-    <row r="117" spans="1:8" ht="24" x14ac:dyDescent="0.25">
+      <c r="H116" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I116" s="2"/>
+    </row>
+    <row r="117" spans="1:9" ht="24" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>379</v>
       </c>
@@ -6938,9 +7283,12 @@
       <c r="G117" s="2" t="s">
         <v>1179</v>
       </c>
-      <c r="H117" s="2"/>
-    </row>
-    <row r="118" spans="1:8" ht="24" x14ac:dyDescent="0.25">
+      <c r="H117" s="2" t="s">
+        <v>1197</v>
+      </c>
+      <c r="I117" s="2"/>
+    </row>
+    <row r="118" spans="1:9" ht="24" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>382</v>
       </c>
@@ -6959,9 +7307,12 @@
       <c r="G118" s="2" t="s">
         <v>1164</v>
       </c>
-      <c r="H118" s="2"/>
-    </row>
-    <row r="119" spans="1:8" ht="24" x14ac:dyDescent="0.25">
+      <c r="H118" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="I118" s="2"/>
+    </row>
+    <row r="119" spans="1:9" ht="24" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>385</v>
       </c>
@@ -6980,9 +7331,12 @@
       <c r="G119" s="2" t="s">
         <v>1180</v>
       </c>
-      <c r="H119" s="2"/>
-    </row>
-    <row r="120" spans="1:8" ht="24" x14ac:dyDescent="0.25">
+      <c r="H119" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I119" s="2"/>
+    </row>
+    <row r="120" spans="1:9" ht="24" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>388</v>
       </c>
@@ -7001,9 +7355,12 @@
       <c r="G120" s="2" t="s">
         <v>1181</v>
       </c>
-      <c r="H120" s="2"/>
-    </row>
-    <row r="121" spans="1:8" ht="24" x14ac:dyDescent="0.25">
+      <c r="H120" s="2" t="s">
+        <v>1197</v>
+      </c>
+      <c r="I120" s="2"/>
+    </row>
+    <row r="121" spans="1:9" ht="24" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>391</v>
       </c>
@@ -7022,9 +7379,12 @@
       <c r="G121" s="2" t="s">
         <v>1164</v>
       </c>
-      <c r="H121" s="2"/>
-    </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H121" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="I121" s="2"/>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>394</v>
       </c>
@@ -7043,9 +7403,12 @@
       <c r="G122" s="2" t="s">
         <v>1182</v>
       </c>
-      <c r="H122" s="2"/>
-    </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H122" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I122" s="2"/>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>397</v>
       </c>
@@ -7064,9 +7427,12 @@
       <c r="G123" s="2" t="s">
         <v>1183</v>
       </c>
-      <c r="H123" s="2"/>
-    </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H123" s="2" t="s">
+        <v>1197</v>
+      </c>
+      <c r="I123" s="2"/>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>400</v>
       </c>
@@ -7085,9 +7451,12 @@
       <c r="G124" s="2" t="s">
         <v>1164</v>
       </c>
-      <c r="H124" s="2"/>
-    </row>
-    <row r="125" spans="1:8" ht="24" x14ac:dyDescent="0.25">
+      <c r="H124" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="I124" s="2"/>
+    </row>
+    <row r="125" spans="1:9" ht="24" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>403</v>
       </c>
@@ -7106,9 +7475,12 @@
       <c r="G125" s="2" t="s">
         <v>1184</v>
       </c>
-      <c r="H125" s="2"/>
-    </row>
-    <row r="126" spans="1:8" ht="24" x14ac:dyDescent="0.25">
+      <c r="H125" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I125" s="2"/>
+    </row>
+    <row r="126" spans="1:9" ht="24" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>406</v>
       </c>
@@ -7127,9 +7499,12 @@
       <c r="G126" s="2" t="s">
         <v>1185</v>
       </c>
-      <c r="H126" s="2"/>
-    </row>
-    <row r="127" spans="1:8" ht="24" x14ac:dyDescent="0.25">
+      <c r="H126" s="2" t="s">
+        <v>1197</v>
+      </c>
+      <c r="I126" s="2"/>
+    </row>
+    <row r="127" spans="1:9" ht="24" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>409</v>
       </c>
@@ -7148,9 +7523,12 @@
       <c r="G127" s="2" t="s">
         <v>1164</v>
       </c>
-      <c r="H127" s="2"/>
-    </row>
-    <row r="128" spans="1:8" ht="24" x14ac:dyDescent="0.25">
+      <c r="H127" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="I127" s="2"/>
+    </row>
+    <row r="128" spans="1:9" ht="24" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>412</v>
       </c>
@@ -7169,9 +7547,12 @@
       <c r="G128" s="2" t="s">
         <v>1186</v>
       </c>
-      <c r="H128" s="2"/>
-    </row>
-    <row r="129" spans="1:8" ht="24" x14ac:dyDescent="0.25">
+      <c r="H128" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I128" s="2"/>
+    </row>
+    <row r="129" spans="1:9" ht="24" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
         <v>415</v>
       </c>
@@ -7190,9 +7571,12 @@
       <c r="G129" s="2" t="s">
         <v>1186</v>
       </c>
-      <c r="H129" s="2"/>
-    </row>
-    <row r="130" spans="1:8" ht="24" x14ac:dyDescent="0.25">
+      <c r="H129" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I129" s="2"/>
+    </row>
+    <row r="130" spans="1:9" ht="24" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>418</v>
       </c>
@@ -7211,9 +7595,12 @@
       <c r="G130" s="2" t="s">
         <v>1186</v>
       </c>
-      <c r="H130" s="2"/>
-    </row>
-    <row r="131" spans="1:8" ht="24" x14ac:dyDescent="0.25">
+      <c r="H130" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I130" s="2"/>
+    </row>
+    <row r="131" spans="1:9" ht="24" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
         <v>421</v>
       </c>
@@ -7232,9 +7619,12 @@
       <c r="G131" s="2" t="s">
         <v>1186</v>
       </c>
-      <c r="H131" s="2"/>
-    </row>
-    <row r="132" spans="1:8" ht="24" x14ac:dyDescent="0.25">
+      <c r="H131" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I131" s="2"/>
+    </row>
+    <row r="132" spans="1:9" ht="24" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
         <v>424</v>
       </c>
@@ -7253,9 +7643,12 @@
       <c r="G132" s="2" t="s">
         <v>1186</v>
       </c>
-      <c r="H132" s="2"/>
-    </row>
-    <row r="133" spans="1:8" ht="24" x14ac:dyDescent="0.25">
+      <c r="H132" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I132" s="2"/>
+    </row>
+    <row r="133" spans="1:9" ht="24" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
         <v>427</v>
       </c>
@@ -7274,9 +7667,12 @@
       <c r="G133" s="2" t="s">
         <v>1187</v>
       </c>
-      <c r="H133" s="2"/>
-    </row>
-    <row r="134" spans="1:8" ht="24" x14ac:dyDescent="0.25">
+      <c r="H133" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I133" s="2"/>
+    </row>
+    <row r="134" spans="1:9" ht="24" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
         <v>430</v>
       </c>
@@ -7295,9 +7691,12 @@
       <c r="G134" s="1" t="s">
         <v>1188</v>
       </c>
-      <c r="H134" s="2"/>
-    </row>
-    <row r="135" spans="1:8" ht="24" x14ac:dyDescent="0.25">
+      <c r="H134" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="I134" s="2"/>
+    </row>
+    <row r="135" spans="1:9" ht="24" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
         <v>433</v>
       </c>
@@ -7316,9 +7715,12 @@
       <c r="G135" s="1" t="s">
         <v>1189</v>
       </c>
-      <c r="H135" s="2"/>
-    </row>
-    <row r="136" spans="1:8" ht="24" x14ac:dyDescent="0.25">
+      <c r="H135" s="1" t="s">
+        <v>1198</v>
+      </c>
+      <c r="I135" s="2"/>
+    </row>
+    <row r="136" spans="1:9" ht="24" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
         <v>436</v>
       </c>
@@ -7337,9 +7739,12 @@
       <c r="G136" s="1" t="s">
         <v>1190</v>
       </c>
-      <c r="H136" s="2"/>
-    </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H136" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I136" s="2"/>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
         <v>439</v>
       </c>
@@ -7358,9 +7763,12 @@
       <c r="G137" s="1" t="s">
         <v>1188</v>
       </c>
-      <c r="H137" s="2"/>
-    </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H137" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="I137" s="2"/>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
         <v>442</v>
       </c>
@@ -7379,9 +7787,12 @@
       <c r="G138" s="1" t="s">
         <v>1189</v>
       </c>
-      <c r="H138" s="2"/>
-    </row>
-    <row r="139" spans="1:8" ht="24" x14ac:dyDescent="0.25">
+      <c r="H138" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I138" s="2"/>
+    </row>
+    <row r="139" spans="1:9" ht="24" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
         <v>445</v>
       </c>
@@ -7400,9 +7811,12 @@
       <c r="G139" s="1" t="s">
         <v>1190</v>
       </c>
-      <c r="H139" s="2"/>
-    </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H139" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I139" s="2"/>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
         <v>448</v>
       </c>
@@ -7421,9 +7835,12 @@
       <c r="G140" s="1" t="s">
         <v>1188</v>
       </c>
-      <c r="H140" s="2"/>
-    </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H140" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="I140" s="2"/>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
         <v>451</v>
       </c>
@@ -7442,9 +7859,12 @@
       <c r="G141" s="1" t="s">
         <v>1189</v>
       </c>
-      <c r="H141" s="2"/>
-    </row>
-    <row r="142" spans="1:8" ht="24" x14ac:dyDescent="0.25">
+      <c r="H141" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I141" s="2"/>
+    </row>
+    <row r="142" spans="1:9" ht="24" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
         <v>454</v>
       </c>
@@ -7463,9 +7883,12 @@
       <c r="G142" s="1" t="s">
         <v>1190</v>
       </c>
-      <c r="H142" s="2"/>
-    </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H142" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I142" s="2"/>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
         <v>457</v>
       </c>
@@ -7484,9 +7907,12 @@
       <c r="G143" s="1" t="s">
         <v>1188</v>
       </c>
-      <c r="H143" s="2"/>
-    </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H143" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="I143" s="2"/>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
         <v>460</v>
       </c>
@@ -7505,9 +7931,12 @@
       <c r="G144" s="1" t="s">
         <v>1189</v>
       </c>
-      <c r="H144" s="2"/>
-    </row>
-    <row r="145" spans="1:8" ht="24" x14ac:dyDescent="0.25">
+      <c r="H144" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I144" s="2"/>
+    </row>
+    <row r="145" spans="1:9" ht="24" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
         <v>463</v>
       </c>
@@ -7526,9 +7955,12 @@
       <c r="G145" s="1" t="s">
         <v>1190</v>
       </c>
-      <c r="H145" s="2"/>
-    </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H145" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I145" s="2"/>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
         <v>466</v>
       </c>
@@ -7547,9 +7979,12 @@
       <c r="G146" s="1" t="s">
         <v>1188</v>
       </c>
-      <c r="H146" s="2"/>
-    </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H146" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="I146" s="2"/>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
         <v>469</v>
       </c>
@@ -7568,9 +8003,12 @@
       <c r="G147" s="1" t="s">
         <v>1189</v>
       </c>
-      <c r="H147" s="2"/>
-    </row>
-    <row r="148" spans="1:8" ht="24" x14ac:dyDescent="0.25">
+      <c r="H147" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I147" s="2"/>
+    </row>
+    <row r="148" spans="1:9" ht="24" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
         <v>472</v>
       </c>
@@ -7589,9 +8027,12 @@
       <c r="G148" s="1" t="s">
         <v>1190</v>
       </c>
-      <c r="H148" s="2"/>
-    </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H148" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I148" s="2"/>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
         <v>475</v>
       </c>
@@ -7610,9 +8051,12 @@
       <c r="G149" s="1" t="s">
         <v>1188</v>
       </c>
-      <c r="H149" s="2"/>
-    </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H149" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="I149" s="2"/>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
         <v>478</v>
       </c>
@@ -7631,9 +8075,12 @@
       <c r="G150" s="1" t="s">
         <v>1189</v>
       </c>
-      <c r="H150" s="2"/>
-    </row>
-    <row r="151" spans="1:8" ht="24" x14ac:dyDescent="0.25">
+      <c r="H150" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I150" s="2"/>
+    </row>
+    <row r="151" spans="1:9" ht="24" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
         <v>481</v>
       </c>
@@ -7652,9 +8099,12 @@
       <c r="G151" s="1" t="s">
         <v>1190</v>
       </c>
-      <c r="H151" s="2"/>
-    </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H151" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I151" s="2"/>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
         <v>484</v>
       </c>
@@ -7673,9 +8123,12 @@
       <c r="G152" s="1" t="s">
         <v>1188</v>
       </c>
-      <c r="H152" s="2"/>
-    </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H152" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="I152" s="2"/>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
         <v>487</v>
       </c>
@@ -7694,9 +8147,12 @@
       <c r="G153" s="1" t="s">
         <v>1189</v>
       </c>
-      <c r="H153" s="2"/>
-    </row>
-    <row r="154" spans="1:8" ht="24" x14ac:dyDescent="0.25">
+      <c r="H153" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I153" s="2"/>
+    </row>
+    <row r="154" spans="1:9" ht="24" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
         <v>490</v>
       </c>
@@ -7715,9 +8171,12 @@
       <c r="G154" s="1" t="s">
         <v>1190</v>
       </c>
-      <c r="H154" s="2"/>
-    </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H154" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I154" s="2"/>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
         <v>493</v>
       </c>
@@ -7736,9 +8195,12 @@
       <c r="G155" s="1" t="s">
         <v>1188</v>
       </c>
-      <c r="H155" s="2"/>
-    </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H155" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="I155" s="2"/>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
         <v>496</v>
       </c>
@@ -7757,9 +8219,12 @@
       <c r="G156" s="1" t="s">
         <v>1189</v>
       </c>
-      <c r="H156" s="2"/>
-    </row>
-    <row r="157" spans="1:8" ht="24" x14ac:dyDescent="0.25">
+      <c r="H156" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I156" s="2"/>
+    </row>
+    <row r="157" spans="1:9" ht="24" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
         <v>499</v>
       </c>
@@ -7778,9 +8243,12 @@
       <c r="G157" s="1" t="s">
         <v>1190</v>
       </c>
-      <c r="H157" s="2"/>
-    </row>
-    <row r="158" spans="1:8" ht="36" x14ac:dyDescent="0.25">
+      <c r="H157" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I157" s="2"/>
+    </row>
+    <row r="158" spans="1:9" ht="36" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
         <v>502</v>
       </c>
@@ -7799,9 +8267,12 @@
       <c r="G158" s="1" t="s">
         <v>1188</v>
       </c>
-      <c r="H158" s="2"/>
-    </row>
-    <row r="159" spans="1:8" ht="36" x14ac:dyDescent="0.25">
+      <c r="H158" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="I158" s="2"/>
+    </row>
+    <row r="159" spans="1:9" ht="36" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
         <v>505</v>
       </c>
@@ -7820,9 +8291,12 @@
       <c r="G159" s="1" t="s">
         <v>1189</v>
       </c>
-      <c r="H159" s="2"/>
-    </row>
-    <row r="160" spans="1:8" ht="36" x14ac:dyDescent="0.25">
+      <c r="H159" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I159" s="2"/>
+    </row>
+    <row r="160" spans="1:9" ht="36" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
         <v>508</v>
       </c>
@@ -7841,9 +8315,12 @@
       <c r="G160" s="1" t="s">
         <v>1190</v>
       </c>
-      <c r="H160" s="2"/>
-    </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H160" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I160" s="2"/>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
         <v>511</v>
       </c>
@@ -7862,9 +8339,12 @@
       <c r="G161" s="2" t="s">
         <v>1191</v>
       </c>
-      <c r="H161" s="2"/>
-    </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H161" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="I161" s="2"/>
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
         <v>514</v>
       </c>
@@ -7883,9 +8363,12 @@
       <c r="G162" s="1" t="s">
         <v>1192</v>
       </c>
-      <c r="H162" s="2"/>
-    </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H162" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="I162" s="2"/>
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
         <v>517</v>
       </c>
@@ -7904,9 +8387,12 @@
       <c r="G163" s="2" t="s">
         <v>1191</v>
       </c>
-      <c r="H163" s="2"/>
-    </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H163" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="I163" s="2"/>
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
         <v>520</v>
       </c>
@@ -7925,9 +8411,12 @@
       <c r="G164" s="1" t="s">
         <v>1192</v>
       </c>
-      <c r="H164" s="2"/>
-    </row>
-    <row r="165" spans="1:8" ht="24" x14ac:dyDescent="0.25">
+      <c r="H164" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="I164" s="2"/>
+    </row>
+    <row r="165" spans="1:9" ht="24" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
         <v>523</v>
       </c>
@@ -7946,9 +8435,12 @@
       <c r="G165" s="2" t="s">
         <v>1191</v>
       </c>
-      <c r="H165" s="2"/>
-    </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H165" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="I165" s="2"/>
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
         <v>526</v>
       </c>
@@ -7967,9 +8459,12 @@
       <c r="G166" s="1" t="s">
         <v>1192</v>
       </c>
-      <c r="H166" s="2"/>
-    </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H166" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="I166" s="2"/>
+    </row>
+    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
         <v>529</v>
       </c>
@@ -7988,9 +8483,12 @@
       <c r="G167" s="2" t="s">
         <v>1191</v>
       </c>
-      <c r="H167" s="2"/>
-    </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H167" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="I167" s="2"/>
+    </row>
+    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
         <v>532</v>
       </c>
@@ -8009,9 +8507,12 @@
       <c r="G168" s="1" t="s">
         <v>1192</v>
       </c>
-      <c r="H168" s="2"/>
-    </row>
-    <row r="169" spans="1:8" ht="24" x14ac:dyDescent="0.25">
+      <c r="H168" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="I168" s="2"/>
+    </row>
+    <row r="169" spans="1:9" ht="24" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
         <v>535</v>
       </c>
@@ -8030,9 +8531,12 @@
       <c r="G169" s="2" t="s">
         <v>1191</v>
       </c>
-      <c r="H169" s="2"/>
-    </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H169" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="I169" s="2"/>
+    </row>
+    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
         <v>538</v>
       </c>
@@ -8051,9 +8555,12 @@
       <c r="G170" s="1" t="s">
         <v>1192</v>
       </c>
-      <c r="H170" s="2"/>
-    </row>
-    <row r="171" spans="1:8" ht="24" x14ac:dyDescent="0.25">
+      <c r="H170" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="I170" s="2"/>
+    </row>
+    <row r="171" spans="1:9" ht="24" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
         <v>541</v>
       </c>
@@ -8072,9 +8579,12 @@
       <c r="G171" s="2" t="s">
         <v>1191</v>
       </c>
-      <c r="H171" s="2"/>
-    </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H171" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="I171" s="2"/>
+    </row>
+    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
         <v>544</v>
       </c>
@@ -8093,9 +8603,12 @@
       <c r="G172" s="1" t="s">
         <v>1192</v>
       </c>
-      <c r="H172" s="2"/>
-    </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H172" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="I172" s="2"/>
+    </row>
+    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
         <v>547</v>
       </c>
@@ -8114,9 +8627,12 @@
       <c r="G173" s="2" t="s">
         <v>1191</v>
       </c>
-      <c r="H173" s="2"/>
-    </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H173" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="I173" s="2"/>
+    </row>
+    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
         <v>550</v>
       </c>
@@ -8135,9 +8651,12 @@
       <c r="G174" s="1" t="s">
         <v>1192</v>
       </c>
-      <c r="H174" s="2"/>
-    </row>
-    <row r="175" spans="1:8" ht="24" x14ac:dyDescent="0.25">
+      <c r="H174" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="I174" s="2"/>
+    </row>
+    <row r="175" spans="1:9" ht="24" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
         <v>553</v>
       </c>
@@ -8156,9 +8675,12 @@
       <c r="G175" s="2" t="s">
         <v>1191</v>
       </c>
-      <c r="H175" s="2"/>
-    </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H175" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="I175" s="2"/>
+    </row>
+    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
         <v>556</v>
       </c>
@@ -8177,9 +8699,12 @@
       <c r="G176" s="1" t="s">
         <v>1192</v>
       </c>
-      <c r="H176" s="2"/>
-    </row>
-    <row r="177" spans="1:8" ht="24" x14ac:dyDescent="0.25">
+      <c r="H176" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="I176" s="2"/>
+    </row>
+    <row r="177" spans="1:9" ht="24" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
         <v>559</v>
       </c>
@@ -8198,9 +8723,12 @@
       <c r="G177" s="2" t="s">
         <v>1191</v>
       </c>
-      <c r="H177" s="2"/>
-    </row>
-    <row r="178" spans="1:8" ht="24" x14ac:dyDescent="0.25">
+      <c r="H177" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="I177" s="2"/>
+    </row>
+    <row r="178" spans="1:9" ht="24" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
         <v>562</v>
       </c>
@@ -8219,9 +8747,12 @@
       <c r="G178" s="1" t="s">
         <v>1192</v>
       </c>
-      <c r="H178" s="2"/>
-    </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H178" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="I178" s="2"/>
+    </row>
+    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
         <v>565</v>
       </c>
@@ -8240,9 +8771,12 @@
       <c r="G179" s="2" t="s">
         <v>1191</v>
       </c>
-      <c r="H179" s="2"/>
-    </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H179" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="I179" s="2"/>
+    </row>
+    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
         <v>568</v>
       </c>
@@ -8261,9 +8795,12 @@
       <c r="G180" s="1" t="s">
         <v>1192</v>
       </c>
-      <c r="H180" s="2"/>
-    </row>
-    <row r="181" spans="1:8" ht="24" x14ac:dyDescent="0.25">
+      <c r="H180" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="I180" s="2"/>
+    </row>
+    <row r="181" spans="1:9" ht="24" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
         <v>571</v>
       </c>
@@ -8282,9 +8819,12 @@
       <c r="G181" s="2" t="s">
         <v>1191</v>
       </c>
-      <c r="H181" s="2"/>
-    </row>
-    <row r="182" spans="1:8" ht="24" x14ac:dyDescent="0.25">
+      <c r="H181" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="I181" s="2"/>
+    </row>
+    <row r="182" spans="1:9" ht="24" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
         <v>574</v>
       </c>
@@ -8303,9 +8843,12 @@
       <c r="G182" s="1" t="s">
         <v>1192</v>
       </c>
-      <c r="H182" s="2"/>
-    </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H182" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="I182" s="2"/>
+    </row>
+    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
         <v>577</v>
       </c>
@@ -8324,9 +8867,12 @@
       <c r="G183" s="2" t="s">
         <v>1191</v>
       </c>
-      <c r="H183" s="2"/>
-    </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H183" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="I183" s="2"/>
+    </row>
+    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
         <v>580</v>
       </c>
@@ -8345,9 +8891,12 @@
       <c r="G184" s="1" t="s">
         <v>1192</v>
       </c>
-      <c r="H184" s="2"/>
-    </row>
-    <row r="185" spans="1:8" ht="36" x14ac:dyDescent="0.25">
+      <c r="H184" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="I184" s="2"/>
+    </row>
+    <row r="185" spans="1:9" ht="36" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
         <v>583</v>
       </c>
@@ -8366,9 +8915,12 @@
       <c r="G185" s="1" t="s">
         <v>1193</v>
       </c>
-      <c r="H185" s="2"/>
-    </row>
-    <row r="186" spans="1:8" ht="72" x14ac:dyDescent="0.25">
+      <c r="H185" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="I185" s="2"/>
+    </row>
+    <row r="186" spans="1:9" ht="72" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
         <v>586</v>
       </c>
@@ -8387,9 +8939,12 @@
       <c r="G186" s="2" t="s">
         <v>1194</v>
       </c>
-      <c r="H186" s="2"/>
-    </row>
-    <row r="187" spans="1:8" ht="24" x14ac:dyDescent="0.25">
+      <c r="H186" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="I186" s="2"/>
+    </row>
+    <row r="187" spans="1:9" ht="24" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
         <v>589</v>
       </c>
@@ -8408,9 +8963,12 @@
       <c r="G187" s="2" t="s">
         <v>1194</v>
       </c>
-      <c r="H187" s="2"/>
-    </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H187" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="I187" s="2"/>
+    </row>
+    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
         <v>592</v>
       </c>
@@ -8429,9 +8987,12 @@
       <c r="G188" s="2" t="s">
         <v>1194</v>
       </c>
-      <c r="H188" s="2"/>
-    </row>
-    <row r="189" spans="1:8" ht="24" x14ac:dyDescent="0.25">
+      <c r="H188" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="I188" s="2"/>
+    </row>
+    <row r="189" spans="1:9" ht="24" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
         <v>595</v>
       </c>
@@ -8450,9 +9011,12 @@
       <c r="G189" s="2" t="s">
         <v>1194</v>
       </c>
-      <c r="H189" s="2"/>
-    </row>
-    <row r="190" spans="1:8" ht="36" x14ac:dyDescent="0.25">
+      <c r="H189" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="I189" s="2"/>
+    </row>
+    <row r="190" spans="1:9" ht="36" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
         <v>598</v>
       </c>
@@ -8471,9 +9035,12 @@
       <c r="G190" s="2" t="s">
         <v>1194</v>
       </c>
-      <c r="H190" s="2"/>
-    </row>
-    <row r="191" spans="1:8" ht="36" x14ac:dyDescent="0.25">
+      <c r="H190" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="I190" s="2"/>
+    </row>
+    <row r="191" spans="1:9" ht="36" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
         <v>601</v>
       </c>
@@ -8492,9 +9059,12 @@
       <c r="G191" s="1" t="s">
         <v>1195</v>
       </c>
-      <c r="H191" s="2"/>
-    </row>
-    <row r="192" spans="1:8" ht="36" x14ac:dyDescent="0.25">
+      <c r="H191" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="I191" s="2"/>
+    </row>
+    <row r="192" spans="1:9" ht="36" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
         <v>604</v>
       </c>
@@ -8513,7 +9083,10 @@
       <c r="G192" s="2" t="s">
         <v>1194</v>
       </c>
-      <c r="H192" s="2"/>
+      <c r="H192" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="I192" s="2"/>
     </row>
     <row r="193" spans="1:4" ht="36" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
@@ -11037,7 +11610,7 @@
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="H13:H15"/>
+    <mergeCell ref="I13:I15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/data/aggregation method_1_updated.xlsx
+++ b/data/aggregation method_1_updated.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\OneDrive_2024-02-01\Annual Area-based Poverty Map\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8a4fc27d6439509c/Desktop/GW/sem_4/Annual Area-based Poverty Map/git_repo/24Spr_Shreyas_Pranav_Indonesia_Poverty/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B901DD9-6FE1-45C6-9191-7C9F9CA8A3FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{4B901DD9-6FE1-45C6-9191-7C9F9CA8A3FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{027D33BB-926D-454B-8FD7-59A18209B7FB}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="aggregation method" sheetId="1" r:id="rId1"/>
@@ -4485,23 +4485,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I372"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A182" workbookViewId="0">
-      <selection activeCell="H197" sqref="H197"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.7109375" style="1"/>
-    <col min="3" max="3" width="33.85546875" style="2" customWidth="1"/>
-    <col min="4" max="5" width="0" style="3" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="13.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="86.140625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="75.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.7109375" style="1"/>
+    <col min="2" max="2" width="8.6640625" style="1"/>
+    <col min="3" max="3" width="60.109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="40.5546875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="54.21875" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="86.109375" style="2" customWidth="1"/>
+    <col min="9" max="9" width="75.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4527,7 +4526,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -4543,7 +4542,7 @@
       <c r="F2" s="1"/>
       <c r="I2" s="2"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -4559,7 +4558,7 @@
       <c r="F3" s="1"/>
       <c r="I3" s="2"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
@@ -4575,7 +4574,7 @@
       <c r="F4" s="1"/>
       <c r="I4" s="2"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>17</v>
       </c>
@@ -4591,7 +4590,7 @@
       <c r="F5" s="1"/>
       <c r="I5" s="2"/>
     </row>
-    <row r="6" spans="1:9" ht="48" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="36" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>20</v>
       </c>
@@ -4617,7 +4616,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="48" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="36" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>27</v>
       </c>
@@ -4641,7 +4640,7 @@
       </c>
       <c r="I7" s="2"/>
     </row>
-    <row r="8" spans="1:9" ht="36" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="36" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>31</v>
       </c>
@@ -4665,7 +4664,7 @@
       </c>
       <c r="I8" s="2"/>
     </row>
-    <row r="9" spans="1:9" ht="36" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="36" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>35</v>
       </c>
@@ -4689,7 +4688,7 @@
       </c>
       <c r="I9" s="2"/>
     </row>
-    <row r="10" spans="1:9" ht="24" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="24" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>39</v>
       </c>
@@ -4713,7 +4712,7 @@
       </c>
       <c r="I10" s="2"/>
     </row>
-    <row r="11" spans="1:9" ht="24" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="24" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>43</v>
       </c>
@@ -4737,7 +4736,7 @@
       </c>
       <c r="I11" s="2"/>
     </row>
-    <row r="12" spans="1:9" ht="36" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="24" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>48</v>
       </c>
@@ -4761,7 +4760,7 @@
       </c>
       <c r="I12" s="2"/>
     </row>
-    <row r="13" spans="1:9" ht="24" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>52</v>
       </c>
@@ -4787,7 +4786,7 @@
         <v>1145</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="24" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>57</v>
       </c>
@@ -4811,7 +4810,7 @@
       </c>
       <c r="I14" s="4"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>61</v>
       </c>
@@ -4835,7 +4834,7 @@
       </c>
       <c r="I15" s="4"/>
     </row>
-    <row r="16" spans="1:9" ht="24" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="24" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>65</v>
       </c>
@@ -4859,7 +4858,7 @@
       </c>
       <c r="I16" s="2"/>
     </row>
-    <row r="17" spans="1:9" ht="36" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="36" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>68</v>
       </c>
@@ -4883,7 +4882,7 @@
       </c>
       <c r="I17" s="2"/>
     </row>
-    <row r="18" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="48" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>71</v>
       </c>
@@ -4909,7 +4908,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>76</v>
       </c>
@@ -4933,7 +4932,7 @@
       </c>
       <c r="I19" s="2"/>
     </row>
-    <row r="20" spans="1:9" ht="24" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="24" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>80</v>
       </c>
@@ -4957,7 +4956,7 @@
       </c>
       <c r="I20" s="2"/>
     </row>
-    <row r="21" spans="1:9" ht="24" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>84</v>
       </c>
@@ -4981,7 +4980,7 @@
       </c>
       <c r="I21" s="2"/>
     </row>
-    <row r="22" spans="1:9" ht="24" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>88</v>
       </c>
@@ -5005,7 +5004,7 @@
       </c>
       <c r="I22" s="2"/>
     </row>
-    <row r="23" spans="1:9" ht="24" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>92</v>
       </c>
@@ -5029,7 +5028,7 @@
       </c>
       <c r="I23" s="2"/>
     </row>
-    <row r="24" spans="1:9" ht="24" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" ht="24" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>96</v>
       </c>
@@ -5053,7 +5052,7 @@
       </c>
       <c r="I24" s="2"/>
     </row>
-    <row r="25" spans="1:9" ht="24" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" ht="24" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>100</v>
       </c>
@@ -5077,7 +5076,7 @@
       </c>
       <c r="I25" s="2"/>
     </row>
-    <row r="26" spans="1:9" ht="24" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>104</v>
       </c>
@@ -5101,7 +5100,7 @@
       </c>
       <c r="I26" s="2"/>
     </row>
-    <row r="27" spans="1:9" ht="24" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" ht="24" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>107</v>
       </c>
@@ -5125,7 +5124,7 @@
       </c>
       <c r="I27" s="2"/>
     </row>
-    <row r="28" spans="1:9" ht="24" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" ht="24" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>110</v>
       </c>
@@ -5149,7 +5148,7 @@
       </c>
       <c r="I28" s="2"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>114</v>
       </c>
@@ -5173,7 +5172,7 @@
       </c>
       <c r="I29" s="2"/>
     </row>
-    <row r="30" spans="1:9" ht="24" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" ht="24" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>117</v>
       </c>
@@ -5197,7 +5196,7 @@
       </c>
       <c r="I30" s="2"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>120</v>
       </c>
@@ -5221,7 +5220,7 @@
       </c>
       <c r="I31" s="2"/>
     </row>
-    <row r="32" spans="1:9" ht="24" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" ht="24" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>123</v>
       </c>
@@ -5248,7 +5247,7 @@
       </c>
       <c r="I32" s="2"/>
     </row>
-    <row r="33" spans="1:9" ht="36" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" ht="36" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>128</v>
       </c>
@@ -5272,7 +5271,7 @@
       </c>
       <c r="I33" s="2"/>
     </row>
-    <row r="34" spans="1:9" ht="24" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" ht="24" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>131</v>
       </c>
@@ -5296,7 +5295,7 @@
       </c>
       <c r="I34" s="2"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>134</v>
       </c>
@@ -5320,7 +5319,7 @@
       </c>
       <c r="I35" s="2"/>
     </row>
-    <row r="36" spans="1:9" ht="24" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" ht="24" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>137</v>
       </c>
@@ -5344,7 +5343,7 @@
       </c>
       <c r="I36" s="2"/>
     </row>
-    <row r="37" spans="1:9" ht="24" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" ht="24" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>140</v>
       </c>
@@ -5368,7 +5367,7 @@
       </c>
       <c r="I37" s="2"/>
     </row>
-    <row r="38" spans="1:9" ht="24" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>143</v>
       </c>
@@ -5392,7 +5391,7 @@
       </c>
       <c r="I38" s="2"/>
     </row>
-    <row r="39" spans="1:9" ht="24" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" ht="24" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>146</v>
       </c>
@@ -5416,7 +5415,7 @@
       </c>
       <c r="I39" s="2"/>
     </row>
-    <row r="40" spans="1:9" ht="48" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" ht="36" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>149</v>
       </c>
@@ -5440,7 +5439,7 @@
       </c>
       <c r="I40" s="2"/>
     </row>
-    <row r="41" spans="1:9" ht="24" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>152</v>
       </c>
@@ -5464,7 +5463,7 @@
       </c>
       <c r="I41" s="2"/>
     </row>
-    <row r="42" spans="1:9" ht="24" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>155</v>
       </c>
@@ -5488,7 +5487,7 @@
       </c>
       <c r="I42" s="2"/>
     </row>
-    <row r="43" spans="1:9" ht="24" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>158</v>
       </c>
@@ -5512,7 +5511,7 @@
       </c>
       <c r="I43" s="2"/>
     </row>
-    <row r="44" spans="1:9" ht="24" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" ht="24" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>161</v>
       </c>
@@ -5536,7 +5535,7 @@
       </c>
       <c r="I44" s="2"/>
     </row>
-    <row r="45" spans="1:9" ht="24" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" ht="24" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>164</v>
       </c>
@@ -5560,7 +5559,7 @@
       </c>
       <c r="I45" s="2"/>
     </row>
-    <row r="46" spans="1:9" ht="24" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" ht="24" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>167</v>
       </c>
@@ -5584,7 +5583,7 @@
       </c>
       <c r="I46" s="2"/>
     </row>
-    <row r="47" spans="1:9" ht="24" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" ht="24" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>171</v>
       </c>
@@ -5608,7 +5607,7 @@
       </c>
       <c r="I47" s="2"/>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>174</v>
       </c>
@@ -5632,7 +5631,7 @@
       </c>
       <c r="I48" s="2"/>
     </row>
-    <row r="49" spans="1:9" ht="24" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>177</v>
       </c>
@@ -5656,7 +5655,7 @@
       </c>
       <c r="I49" s="2"/>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>180</v>
       </c>
@@ -5680,7 +5679,7 @@
       </c>
       <c r="I50" s="2"/>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>183</v>
       </c>
@@ -5704,7 +5703,7 @@
       </c>
       <c r="I51" s="2"/>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>186</v>
       </c>
@@ -5728,7 +5727,7 @@
       </c>
       <c r="I52" s="2"/>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>189</v>
       </c>
@@ -5752,7 +5751,7 @@
       </c>
       <c r="I53" s="2"/>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>192</v>
       </c>
@@ -5776,7 +5775,7 @@
       </c>
       <c r="I54" s="2"/>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>195</v>
       </c>
@@ -5800,7 +5799,7 @@
       </c>
       <c r="I55" s="2"/>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>198</v>
       </c>
@@ -5824,7 +5823,7 @@
       </c>
       <c r="I56" s="2"/>
     </row>
-    <row r="57" spans="1:9" ht="24" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" ht="24" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>201</v>
       </c>
@@ -5848,7 +5847,7 @@
       </c>
       <c r="I57" s="2"/>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>204</v>
       </c>
@@ -5872,7 +5871,7 @@
       </c>
       <c r="I58" s="2"/>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>207</v>
       </c>
@@ -5896,7 +5895,7 @@
       </c>
       <c r="I59" s="2"/>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>210</v>
       </c>
@@ -5920,7 +5919,7 @@
       </c>
       <c r="I60" s="2"/>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>213</v>
       </c>
@@ -5944,7 +5943,7 @@
       </c>
       <c r="I61" s="2"/>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>216</v>
       </c>
@@ -5968,7 +5967,7 @@
       </c>
       <c r="I62" s="2"/>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>219</v>
       </c>
@@ -5992,7 +5991,7 @@
       </c>
       <c r="I63" s="2"/>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>222</v>
       </c>
@@ -6016,7 +6015,7 @@
       </c>
       <c r="I64" s="2"/>
     </row>
-    <row r="65" spans="1:9" ht="24" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" ht="24" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>225</v>
       </c>
@@ -6040,7 +6039,7 @@
       </c>
       <c r="I65" s="2"/>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>228</v>
       </c>
@@ -6064,7 +6063,7 @@
       </c>
       <c r="I66" s="2"/>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>231</v>
       </c>
@@ -6088,7 +6087,7 @@
       </c>
       <c r="I67" s="2"/>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>234</v>
       </c>
@@ -6112,7 +6111,7 @@
       </c>
       <c r="I68" s="2"/>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
         <v>237</v>
       </c>
@@ -6136,7 +6135,7 @@
       </c>
       <c r="I69" s="2"/>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
         <v>240</v>
       </c>
@@ -6160,7 +6159,7 @@
       </c>
       <c r="I70" s="2"/>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
         <v>243</v>
       </c>
@@ -6184,7 +6183,7 @@
       </c>
       <c r="I71" s="2"/>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
         <v>246</v>
       </c>
@@ -6208,7 +6207,7 @@
       </c>
       <c r="I72" s="2"/>
     </row>
-    <row r="73" spans="1:9" ht="24" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
         <v>249</v>
       </c>
@@ -6232,7 +6231,7 @@
       </c>
       <c r="I73" s="2"/>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
         <v>252</v>
       </c>
@@ -6256,7 +6255,7 @@
       </c>
       <c r="I74" s="2"/>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
         <v>255</v>
       </c>
@@ -6280,7 +6279,7 @@
       </c>
       <c r="I75" s="2"/>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
         <v>258</v>
       </c>
@@ -6304,7 +6303,7 @@
       </c>
       <c r="I76" s="2"/>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
         <v>261</v>
       </c>
@@ -6328,7 +6327,7 @@
       </c>
       <c r="I77" s="2"/>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
         <v>264</v>
       </c>
@@ -6352,7 +6351,7 @@
       </c>
       <c r="I78" s="2"/>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
         <v>267</v>
       </c>
@@ -6376,7 +6375,7 @@
       </c>
       <c r="I79" s="2"/>
     </row>
-    <row r="80" spans="1:9" ht="24" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" ht="24" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
         <v>270</v>
       </c>
@@ -6400,7 +6399,7 @@
       </c>
       <c r="I80" s="2"/>
     </row>
-    <row r="81" spans="1:9" ht="24" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" ht="24" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
         <v>273</v>
       </c>
@@ -6424,7 +6423,7 @@
       </c>
       <c r="I81" s="2"/>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
         <v>276</v>
       </c>
@@ -6448,7 +6447,7 @@
       </c>
       <c r="I82" s="2"/>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
         <v>279</v>
       </c>
@@ -6472,7 +6471,7 @@
       </c>
       <c r="I83" s="2"/>
     </row>
-    <row r="84" spans="1:9" ht="24" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" ht="24" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
         <v>282</v>
       </c>
@@ -6496,7 +6495,7 @@
       </c>
       <c r="I84" s="2"/>
     </row>
-    <row r="85" spans="1:9" ht="24" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" ht="24" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
         <v>285</v>
       </c>
@@ -6520,7 +6519,7 @@
       </c>
       <c r="I85" s="2"/>
     </row>
-    <row r="86" spans="1:9" ht="24" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
         <v>288</v>
       </c>
@@ -6544,7 +6543,7 @@
       </c>
       <c r="I86" s="2"/>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
         <v>291</v>
       </c>
@@ -6568,7 +6567,7 @@
       </c>
       <c r="I87" s="2"/>
     </row>
-    <row r="88" spans="1:9" ht="24" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" ht="24" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
         <v>294</v>
       </c>
@@ -6592,7 +6591,7 @@
       </c>
       <c r="I88" s="2"/>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
         <v>297</v>
       </c>
@@ -6616,7 +6615,7 @@
       </c>
       <c r="I89" s="2"/>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
         <v>300</v>
       </c>
@@ -6640,7 +6639,7 @@
       </c>
       <c r="I90" s="2"/>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
         <v>303</v>
       </c>
@@ -6664,7 +6663,7 @@
       </c>
       <c r="I91" s="2"/>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
         <v>306</v>
       </c>
@@ -6688,7 +6687,7 @@
       </c>
       <c r="I92" s="2"/>
     </row>
-    <row r="93" spans="1:9" ht="24" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
         <v>309</v>
       </c>
@@ -6712,7 +6711,7 @@
       </c>
       <c r="I93" s="2"/>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
         <v>312</v>
       </c>
@@ -6736,7 +6735,7 @@
       </c>
       <c r="I94" s="2"/>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
         <v>315</v>
       </c>
@@ -6760,7 +6759,7 @@
       </c>
       <c r="I95" s="2"/>
     </row>
-    <row r="96" spans="1:9" ht="24" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9" ht="24" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
         <v>318</v>
       </c>
@@ -6784,7 +6783,7 @@
       </c>
       <c r="I96" s="2"/>
     </row>
-    <row r="97" spans="1:9" ht="24" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
         <v>321</v>
       </c>
@@ -6808,7 +6807,7 @@
       </c>
       <c r="I97" s="2"/>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
         <v>324</v>
       </c>
@@ -6832,7 +6831,7 @@
       </c>
       <c r="I98" s="2"/>
     </row>
-    <row r="99" spans="1:9" ht="24" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9" ht="24" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
         <v>327</v>
       </c>
@@ -6856,7 +6855,7 @@
       </c>
       <c r="I99" s="2"/>
     </row>
-    <row r="100" spans="1:9" ht="24" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9" ht="24" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
         <v>330</v>
       </c>
@@ -6880,7 +6879,7 @@
       </c>
       <c r="I100" s="2"/>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
         <v>333</v>
       </c>
@@ -6904,7 +6903,7 @@
       </c>
       <c r="I101" s="2"/>
     </row>
-    <row r="102" spans="1:9" ht="24" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
         <v>336</v>
       </c>
@@ -6928,7 +6927,7 @@
       </c>
       <c r="I102" s="2"/>
     </row>
-    <row r="103" spans="1:9" ht="24" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
         <v>339</v>
       </c>
@@ -6952,7 +6951,7 @@
       </c>
       <c r="I103" s="2"/>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
         <v>342</v>
       </c>
@@ -6976,7 +6975,7 @@
       </c>
       <c r="I104" s="2"/>
     </row>
-    <row r="105" spans="1:9" ht="24" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:9" ht="24" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
         <v>345</v>
       </c>
@@ -7000,7 +6999,7 @@
       </c>
       <c r="I105" s="2"/>
     </row>
-    <row r="106" spans="1:9" ht="24" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
         <v>348</v>
       </c>
@@ -7024,7 +7023,7 @@
       </c>
       <c r="I106" s="2"/>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
         <v>351</v>
       </c>
@@ -7048,7 +7047,7 @@
       </c>
       <c r="I107" s="2"/>
     </row>
-    <row r="108" spans="1:9" ht="24" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
         <v>354</v>
       </c>
@@ -7072,7 +7071,7 @@
       </c>
       <c r="I108" s="2"/>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
         <v>357</v>
       </c>
@@ -7096,7 +7095,7 @@
       </c>
       <c r="I109" s="2"/>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
         <v>360</v>
       </c>
@@ -7120,7 +7119,7 @@
       </c>
       <c r="I110" s="2"/>
     </row>
-    <row r="111" spans="1:9" ht="24" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
         <v>363</v>
       </c>
@@ -7144,7 +7143,7 @@
       </c>
       <c r="I111" s="2"/>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
         <v>364</v>
       </c>
@@ -7168,7 +7167,7 @@
       </c>
       <c r="I112" s="2"/>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
         <v>367</v>
       </c>
@@ -7192,7 +7191,7 @@
       </c>
       <c r="I113" s="2"/>
     </row>
-    <row r="114" spans="1:9" ht="24" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:9" ht="24" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
         <v>370</v>
       </c>
@@ -7216,7 +7215,7 @@
       </c>
       <c r="I114" s="2"/>
     </row>
-    <row r="115" spans="1:9" ht="24" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:9" ht="24" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
         <v>373</v>
       </c>
@@ -7240,7 +7239,7 @@
       </c>
       <c r="I115" s="2"/>
     </row>
-    <row r="116" spans="1:9" ht="24" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
         <v>376</v>
       </c>
@@ -7264,7 +7263,7 @@
       </c>
       <c r="I116" s="2"/>
     </row>
-    <row r="117" spans="1:9" ht="24" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:9" ht="24" x14ac:dyDescent="0.3">
       <c r="A117" s="1" t="s">
         <v>379</v>
       </c>
@@ -7288,7 +7287,7 @@
       </c>
       <c r="I117" s="2"/>
     </row>
-    <row r="118" spans="1:9" ht="24" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:9" ht="24" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
         <v>382</v>
       </c>
@@ -7312,7 +7311,7 @@
       </c>
       <c r="I118" s="2"/>
     </row>
-    <row r="119" spans="1:9" ht="24" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:9" ht="24" x14ac:dyDescent="0.3">
       <c r="A119" s="1" t="s">
         <v>385</v>
       </c>
@@ -7336,7 +7335,7 @@
       </c>
       <c r="I119" s="2"/>
     </row>
-    <row r="120" spans="1:9" ht="24" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:9" ht="24" x14ac:dyDescent="0.3">
       <c r="A120" s="1" t="s">
         <v>388</v>
       </c>
@@ -7360,7 +7359,7 @@
       </c>
       <c r="I120" s="2"/>
     </row>
-    <row r="121" spans="1:9" ht="24" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:9" ht="24" x14ac:dyDescent="0.3">
       <c r="A121" s="1" t="s">
         <v>391</v>
       </c>
@@ -7384,7 +7383,7 @@
       </c>
       <c r="I121" s="2"/>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A122" s="1" t="s">
         <v>394</v>
       </c>
@@ -7408,7 +7407,7 @@
       </c>
       <c r="I122" s="2"/>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A123" s="1" t="s">
         <v>397</v>
       </c>
@@ -7432,7 +7431,7 @@
       </c>
       <c r="I123" s="2"/>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A124" s="1" t="s">
         <v>400</v>
       </c>
@@ -7456,7 +7455,7 @@
       </c>
       <c r="I124" s="2"/>
     </row>
-    <row r="125" spans="1:9" ht="24" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:9" ht="24" x14ac:dyDescent="0.3">
       <c r="A125" s="1" t="s">
         <v>403</v>
       </c>
@@ -7480,7 +7479,7 @@
       </c>
       <c r="I125" s="2"/>
     </row>
-    <row r="126" spans="1:9" ht="24" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:9" ht="24" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
         <v>406</v>
       </c>
@@ -7504,7 +7503,7 @@
       </c>
       <c r="I126" s="2"/>
     </row>
-    <row r="127" spans="1:9" ht="24" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:9" ht="24" x14ac:dyDescent="0.3">
       <c r="A127" s="1" t="s">
         <v>409</v>
       </c>
@@ -7528,7 +7527,7 @@
       </c>
       <c r="I127" s="2"/>
     </row>
-    <row r="128" spans="1:9" ht="24" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:9" ht="24" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
         <v>412</v>
       </c>
@@ -7552,7 +7551,7 @@
       </c>
       <c r="I128" s="2"/>
     </row>
-    <row r="129" spans="1:9" ht="24" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:9" ht="24" x14ac:dyDescent="0.3">
       <c r="A129" s="1" t="s">
         <v>415</v>
       </c>
@@ -7576,7 +7575,7 @@
       </c>
       <c r="I129" s="2"/>
     </row>
-    <row r="130" spans="1:9" ht="24" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:9" ht="24" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
         <v>418</v>
       </c>
@@ -7600,7 +7599,7 @@
       </c>
       <c r="I130" s="2"/>
     </row>
-    <row r="131" spans="1:9" ht="24" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:9" ht="24" x14ac:dyDescent="0.3">
       <c r="A131" s="1" t="s">
         <v>421</v>
       </c>
@@ -7624,7 +7623,7 @@
       </c>
       <c r="I131" s="2"/>
     </row>
-    <row r="132" spans="1:9" ht="24" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:9" ht="24" x14ac:dyDescent="0.3">
       <c r="A132" s="1" t="s">
         <v>424</v>
       </c>
@@ -7648,7 +7647,7 @@
       </c>
       <c r="I132" s="2"/>
     </row>
-    <row r="133" spans="1:9" ht="24" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:9" ht="24" x14ac:dyDescent="0.3">
       <c r="A133" s="1" t="s">
         <v>427</v>
       </c>
@@ -7672,7 +7671,7 @@
       </c>
       <c r="I133" s="2"/>
     </row>
-    <row r="134" spans="1:9" ht="24" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A134" s="1" t="s">
         <v>430</v>
       </c>
@@ -7696,7 +7695,7 @@
       </c>
       <c r="I134" s="2"/>
     </row>
-    <row r="135" spans="1:9" ht="24" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A135" s="1" t="s">
         <v>433</v>
       </c>
@@ -7720,7 +7719,7 @@
       </c>
       <c r="I135" s="2"/>
     </row>
-    <row r="136" spans="1:9" ht="24" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:9" ht="24" x14ac:dyDescent="0.3">
       <c r="A136" s="1" t="s">
         <v>436</v>
       </c>
@@ -7744,7 +7743,7 @@
       </c>
       <c r="I136" s="2"/>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A137" s="1" t="s">
         <v>439</v>
       </c>
@@ -7768,7 +7767,7 @@
       </c>
       <c r="I137" s="2"/>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A138" s="1" t="s">
         <v>442</v>
       </c>
@@ -7792,7 +7791,7 @@
       </c>
       <c r="I138" s="2"/>
     </row>
-    <row r="139" spans="1:9" ht="24" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:9" ht="24" x14ac:dyDescent="0.3">
       <c r="A139" s="1" t="s">
         <v>445</v>
       </c>
@@ -7816,7 +7815,7 @@
       </c>
       <c r="I139" s="2"/>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A140" s="1" t="s">
         <v>448</v>
       </c>
@@ -7840,7 +7839,7 @@
       </c>
       <c r="I140" s="2"/>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A141" s="1" t="s">
         <v>451</v>
       </c>
@@ -7864,7 +7863,7 @@
       </c>
       <c r="I141" s="2"/>
     </row>
-    <row r="142" spans="1:9" ht="24" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A142" s="1" t="s">
         <v>454</v>
       </c>
@@ -7888,7 +7887,7 @@
       </c>
       <c r="I142" s="2"/>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A143" s="1" t="s">
         <v>457</v>
       </c>
@@ -7912,7 +7911,7 @@
       </c>
       <c r="I143" s="2"/>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A144" s="1" t="s">
         <v>460</v>
       </c>
@@ -7936,7 +7935,7 @@
       </c>
       <c r="I144" s="2"/>
     </row>
-    <row r="145" spans="1:9" ht="24" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A145" s="1" t="s">
         <v>463</v>
       </c>
@@ -7960,7 +7959,7 @@
       </c>
       <c r="I145" s="2"/>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A146" s="1" t="s">
         <v>466</v>
       </c>
@@ -7984,7 +7983,7 @@
       </c>
       <c r="I146" s="2"/>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A147" s="1" t="s">
         <v>469</v>
       </c>
@@ -8008,7 +8007,7 @@
       </c>
       <c r="I147" s="2"/>
     </row>
-    <row r="148" spans="1:9" ht="24" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:9" ht="24" x14ac:dyDescent="0.3">
       <c r="A148" s="1" t="s">
         <v>472</v>
       </c>
@@ -8032,7 +8031,7 @@
       </c>
       <c r="I148" s="2"/>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A149" s="1" t="s">
         <v>475</v>
       </c>
@@ -8056,7 +8055,7 @@
       </c>
       <c r="I149" s="2"/>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A150" s="1" t="s">
         <v>478</v>
       </c>
@@ -8080,7 +8079,7 @@
       </c>
       <c r="I150" s="2"/>
     </row>
-    <row r="151" spans="1:9" ht="24" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:9" ht="24" x14ac:dyDescent="0.3">
       <c r="A151" s="1" t="s">
         <v>481</v>
       </c>
@@ -8104,7 +8103,7 @@
       </c>
       <c r="I151" s="2"/>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A152" s="1" t="s">
         <v>484</v>
       </c>
@@ -8128,7 +8127,7 @@
       </c>
       <c r="I152" s="2"/>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A153" s="1" t="s">
         <v>487</v>
       </c>
@@ -8152,7 +8151,7 @@
       </c>
       <c r="I153" s="2"/>
     </row>
-    <row r="154" spans="1:9" ht="24" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:9" ht="24" x14ac:dyDescent="0.3">
       <c r="A154" s="1" t="s">
         <v>490</v>
       </c>
@@ -8176,7 +8175,7 @@
       </c>
       <c r="I154" s="2"/>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A155" s="1" t="s">
         <v>493</v>
       </c>
@@ -8200,7 +8199,7 @@
       </c>
       <c r="I155" s="2"/>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A156" s="1" t="s">
         <v>496</v>
       </c>
@@ -8224,7 +8223,7 @@
       </c>
       <c r="I156" s="2"/>
     </row>
-    <row r="157" spans="1:9" ht="24" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A157" s="1" t="s">
         <v>499</v>
       </c>
@@ -8248,7 +8247,7 @@
       </c>
       <c r="I157" s="2"/>
     </row>
-    <row r="158" spans="1:9" ht="36" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:9" ht="24" x14ac:dyDescent="0.3">
       <c r="A158" s="1" t="s">
         <v>502</v>
       </c>
@@ -8272,7 +8271,7 @@
       </c>
       <c r="I158" s="2"/>
     </row>
-    <row r="159" spans="1:9" ht="36" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:9" ht="24" x14ac:dyDescent="0.3">
       <c r="A159" s="1" t="s">
         <v>505</v>
       </c>
@@ -8296,7 +8295,7 @@
       </c>
       <c r="I159" s="2"/>
     </row>
-    <row r="160" spans="1:9" ht="36" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:9" ht="36" x14ac:dyDescent="0.3">
       <c r="A160" s="1" t="s">
         <v>508</v>
       </c>
@@ -8320,7 +8319,7 @@
       </c>
       <c r="I160" s="2"/>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A161" s="1" t="s">
         <v>511</v>
       </c>
@@ -8344,7 +8343,7 @@
       </c>
       <c r="I161" s="2"/>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A162" s="1" t="s">
         <v>514</v>
       </c>
@@ -8368,7 +8367,7 @@
       </c>
       <c r="I162" s="2"/>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A163" s="1" t="s">
         <v>517</v>
       </c>
@@ -8392,7 +8391,7 @@
       </c>
       <c r="I163" s="2"/>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A164" s="1" t="s">
         <v>520</v>
       </c>
@@ -8416,7 +8415,7 @@
       </c>
       <c r="I164" s="2"/>
     </row>
-    <row r="165" spans="1:9" ht="24" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A165" s="1" t="s">
         <v>523</v>
       </c>
@@ -8440,7 +8439,7 @@
       </c>
       <c r="I165" s="2"/>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A166" s="1" t="s">
         <v>526</v>
       </c>
@@ -8464,7 +8463,7 @@
       </c>
       <c r="I166" s="2"/>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A167" s="1" t="s">
         <v>529</v>
       </c>
@@ -8488,7 +8487,7 @@
       </c>
       <c r="I167" s="2"/>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A168" s="1" t="s">
         <v>532</v>
       </c>
@@ -8512,7 +8511,7 @@
       </c>
       <c r="I168" s="2"/>
     </row>
-    <row r="169" spans="1:9" ht="24" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A169" s="1" t="s">
         <v>535</v>
       </c>
@@ -8536,7 +8535,7 @@
       </c>
       <c r="I169" s="2"/>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A170" s="1" t="s">
         <v>538</v>
       </c>
@@ -8560,7 +8559,7 @@
       </c>
       <c r="I170" s="2"/>
     </row>
-    <row r="171" spans="1:9" ht="24" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A171" s="1" t="s">
         <v>541</v>
       </c>
@@ -8584,7 +8583,7 @@
       </c>
       <c r="I171" s="2"/>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A172" s="1" t="s">
         <v>544</v>
       </c>
@@ -8608,7 +8607,7 @@
       </c>
       <c r="I172" s="2"/>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A173" s="1" t="s">
         <v>547</v>
       </c>
@@ -8632,7 +8631,7 @@
       </c>
       <c r="I173" s="2"/>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A174" s="1" t="s">
         <v>550</v>
       </c>
@@ -8656,7 +8655,7 @@
       </c>
       <c r="I174" s="2"/>
     </row>
-    <row r="175" spans="1:9" ht="24" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A175" s="1" t="s">
         <v>553</v>
       </c>
@@ -8680,7 +8679,7 @@
       </c>
       <c r="I175" s="2"/>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A176" s="1" t="s">
         <v>556</v>
       </c>
@@ -8704,7 +8703,7 @@
       </c>
       <c r="I176" s="2"/>
     </row>
-    <row r="177" spans="1:9" ht="24" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:9" ht="24" x14ac:dyDescent="0.3">
       <c r="A177" s="1" t="s">
         <v>559</v>
       </c>
@@ -8728,7 +8727,7 @@
       </c>
       <c r="I177" s="2"/>
     </row>
-    <row r="178" spans="1:9" ht="24" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:9" ht="24" x14ac:dyDescent="0.3">
       <c r="A178" s="1" t="s">
         <v>562</v>
       </c>
@@ -8752,7 +8751,7 @@
       </c>
       <c r="I178" s="2"/>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A179" s="1" t="s">
         <v>565</v>
       </c>
@@ -8776,7 +8775,7 @@
       </c>
       <c r="I179" s="2"/>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A180" s="1" t="s">
         <v>568</v>
       </c>
@@ -8800,7 +8799,7 @@
       </c>
       <c r="I180" s="2"/>
     </row>
-    <row r="181" spans="1:9" ht="24" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:9" ht="24" x14ac:dyDescent="0.3">
       <c r="A181" s="1" t="s">
         <v>571</v>
       </c>
@@ -8824,7 +8823,7 @@
       </c>
       <c r="I181" s="2"/>
     </row>
-    <row r="182" spans="1:9" ht="24" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A182" s="1" t="s">
         <v>574</v>
       </c>
@@ -8848,7 +8847,7 @@
       </c>
       <c r="I182" s="2"/>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A183" s="1" t="s">
         <v>577</v>
       </c>
@@ -8872,7 +8871,7 @@
       </c>
       <c r="I183" s="2"/>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A184" s="1" t="s">
         <v>580</v>
       </c>
@@ -8896,7 +8895,7 @@
       </c>
       <c r="I184" s="2"/>
     </row>
-    <row r="185" spans="1:9" ht="36" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:9" ht="24" x14ac:dyDescent="0.3">
       <c r="A185" s="1" t="s">
         <v>583</v>
       </c>
@@ -8920,7 +8919,7 @@
       </c>
       <c r="I185" s="2"/>
     </row>
-    <row r="186" spans="1:9" ht="72" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:9" ht="48" x14ac:dyDescent="0.3">
       <c r="A186" s="1" t="s">
         <v>586</v>
       </c>
@@ -8944,7 +8943,7 @@
       </c>
       <c r="I186" s="2"/>
     </row>
-    <row r="187" spans="1:9" ht="24" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A187" s="1" t="s">
         <v>589</v>
       </c>
@@ -8968,7 +8967,7 @@
       </c>
       <c r="I187" s="2"/>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A188" s="1" t="s">
         <v>592</v>
       </c>
@@ -8992,7 +8991,7 @@
       </c>
       <c r="I188" s="2"/>
     </row>
-    <row r="189" spans="1:9" ht="24" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:9" ht="24" x14ac:dyDescent="0.3">
       <c r="A189" s="1" t="s">
         <v>595</v>
       </c>
@@ -9016,7 +9015,7 @@
       </c>
       <c r="I189" s="2"/>
     </row>
-    <row r="190" spans="1:9" ht="36" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:9" ht="36" x14ac:dyDescent="0.3">
       <c r="A190" s="1" t="s">
         <v>598</v>
       </c>
@@ -9040,7 +9039,7 @@
       </c>
       <c r="I190" s="2"/>
     </row>
-    <row r="191" spans="1:9" ht="36" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:9" ht="36" x14ac:dyDescent="0.3">
       <c r="A191" s="1" t="s">
         <v>601</v>
       </c>
@@ -9064,7 +9063,7 @@
       </c>
       <c r="I191" s="2"/>
     </row>
-    <row r="192" spans="1:9" ht="36" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:9" ht="36" x14ac:dyDescent="0.3">
       <c r="A192" s="1" t="s">
         <v>604</v>
       </c>
@@ -9088,7 +9087,7 @@
       </c>
       <c r="I192" s="2"/>
     </row>
-    <row r="193" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:4" ht="36" x14ac:dyDescent="0.3">
       <c r="A193" s="1" t="s">
         <v>607</v>
       </c>
@@ -9102,7 +9101,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="194" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:4" ht="24" x14ac:dyDescent="0.3">
       <c r="A194" s="1" t="s">
         <v>610</v>
       </c>
@@ -9116,7 +9115,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="195" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:4" ht="36" x14ac:dyDescent="0.3">
       <c r="A195" s="1" t="s">
         <v>613</v>
       </c>
@@ -9130,7 +9129,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="196" spans="1:4" ht="24" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:4" ht="24" x14ac:dyDescent="0.3">
       <c r="A196" s="1" t="s">
         <v>616</v>
       </c>
@@ -9144,7 +9143,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="197" spans="1:4" ht="24" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:4" ht="24" x14ac:dyDescent="0.3">
       <c r="A197" s="1" t="s">
         <v>619</v>
       </c>
@@ -9158,7 +9157,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="198" spans="1:4" ht="24" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:4" ht="24" x14ac:dyDescent="0.3">
       <c r="A198" s="1" t="s">
         <v>622</v>
       </c>
@@ -9172,7 +9171,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="199" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:4" ht="24" x14ac:dyDescent="0.3">
       <c r="A199" s="1" t="s">
         <v>625</v>
       </c>
@@ -9186,7 +9185,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="200" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:4" ht="36" x14ac:dyDescent="0.3">
       <c r="A200" s="1" t="s">
         <v>628</v>
       </c>
@@ -9200,7 +9199,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="201" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:4" ht="36" x14ac:dyDescent="0.3">
       <c r="A201" s="1" t="s">
         <v>631</v>
       </c>
@@ -9214,7 +9213,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="202" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:4" ht="36" x14ac:dyDescent="0.3">
       <c r="A202" s="1" t="s">
         <v>634</v>
       </c>
@@ -9228,7 +9227,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="203" spans="1:4" ht="24" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:4" ht="24" x14ac:dyDescent="0.3">
       <c r="A203" s="1" t="s">
         <v>637</v>
       </c>
@@ -9242,7 +9241,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="204" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:4" ht="24" x14ac:dyDescent="0.3">
       <c r="A204" s="1" t="s">
         <v>640</v>
       </c>
@@ -9256,7 +9255,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="205" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:4" ht="24" x14ac:dyDescent="0.3">
       <c r="A205" s="1" t="s">
         <v>643</v>
       </c>
@@ -9270,7 +9269,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="206" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:4" ht="24" x14ac:dyDescent="0.3">
       <c r="A206" s="1" t="s">
         <v>646</v>
       </c>
@@ -9284,7 +9283,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="207" spans="1:4" ht="24" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:4" ht="24" x14ac:dyDescent="0.3">
       <c r="A207" s="1" t="s">
         <v>649</v>
       </c>
@@ -9298,7 +9297,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="208" spans="1:4" ht="24" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:4" ht="24" x14ac:dyDescent="0.3">
       <c r="A208" s="1" t="s">
         <v>652</v>
       </c>
@@ -9312,7 +9311,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="209" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:4" ht="36" x14ac:dyDescent="0.3">
       <c r="A209" s="1" t="s">
         <v>655</v>
       </c>
@@ -9326,7 +9325,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="210" spans="1:4" ht="24" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:4" ht="24" x14ac:dyDescent="0.3">
       <c r="A210" s="1" t="s">
         <v>658</v>
       </c>
@@ -9340,7 +9339,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="211" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:4" ht="36" x14ac:dyDescent="0.3">
       <c r="A211" s="1" t="s">
         <v>661</v>
       </c>
@@ -9354,7 +9353,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="212" spans="1:4" ht="24" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:4" ht="24" x14ac:dyDescent="0.3">
       <c r="A212" s="1" t="s">
         <v>664</v>
       </c>
@@ -9368,7 +9367,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="213" spans="1:4" ht="24" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:4" ht="24" x14ac:dyDescent="0.3">
       <c r="A213" s="1" t="s">
         <v>667</v>
       </c>
@@ -9382,7 +9381,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="214" spans="1:4" ht="24" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:4" ht="24" x14ac:dyDescent="0.3">
       <c r="A214" s="1" t="s">
         <v>670</v>
       </c>
@@ -9396,7 +9395,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="215" spans="1:4" ht="24" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:4" ht="24" x14ac:dyDescent="0.3">
       <c r="A215" s="1" t="s">
         <v>673</v>
       </c>
@@ -9410,7 +9409,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A216" s="1" t="s">
         <v>676</v>
       </c>
@@ -9424,7 +9423,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A217" s="1" t="s">
         <v>679</v>
       </c>
@@ -9438,7 +9437,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="218" spans="1:4" ht="24" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:4" ht="24" x14ac:dyDescent="0.3">
       <c r="A218" s="1" t="s">
         <v>682</v>
       </c>
@@ -9452,7 +9451,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="219" spans="1:4" ht="48" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:4" ht="36" x14ac:dyDescent="0.3">
       <c r="A219" s="1" t="s">
         <v>685</v>
       </c>
@@ -9466,7 +9465,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="220" spans="1:4" ht="48" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:4" ht="36" x14ac:dyDescent="0.3">
       <c r="A220" s="1" t="s">
         <v>688</v>
       </c>
@@ -9480,7 +9479,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="221" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:4" ht="48" x14ac:dyDescent="0.3">
       <c r="A221" s="1" t="s">
         <v>691</v>
       </c>
@@ -9494,7 +9493,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="222" spans="1:4" ht="48" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:4" ht="48" x14ac:dyDescent="0.3">
       <c r="A222" s="1" t="s">
         <v>694</v>
       </c>
@@ -9508,7 +9507,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="223" spans="1:4" ht="48" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:4" ht="48" x14ac:dyDescent="0.3">
       <c r="A223" s="1" t="s">
         <v>697</v>
       </c>
@@ -9522,7 +9521,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="224" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:4" ht="60" x14ac:dyDescent="0.3">
       <c r="A224" s="1" t="s">
         <v>700</v>
       </c>
@@ -9536,7 +9535,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="225" spans="1:4" ht="84" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:4" ht="72" x14ac:dyDescent="0.3">
       <c r="A225" s="1" t="s">
         <v>703</v>
       </c>
@@ -9550,7 +9549,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="226" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:4" ht="36" x14ac:dyDescent="0.3">
       <c r="A226" s="1" t="s">
         <v>706</v>
       </c>
@@ -9564,7 +9563,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="227" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:4" ht="24" x14ac:dyDescent="0.3">
       <c r="A227" s="1" t="s">
         <v>709</v>
       </c>
@@ -9578,7 +9577,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="228" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:4" ht="36" x14ac:dyDescent="0.3">
       <c r="A228" s="1" t="s">
         <v>712</v>
       </c>
@@ -9592,7 +9591,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="229" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:4" ht="24" x14ac:dyDescent="0.3">
       <c r="A229" s="1" t="s">
         <v>715</v>
       </c>
@@ -9606,7 +9605,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="230" spans="1:4" ht="24" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:4" ht="24" x14ac:dyDescent="0.3">
       <c r="A230" s="1" t="s">
         <v>718</v>
       </c>
@@ -9620,7 +9619,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="231" spans="1:4" ht="24" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:4" ht="24" x14ac:dyDescent="0.3">
       <c r="A231" s="1" t="s">
         <v>721</v>
       </c>
@@ -9634,7 +9633,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="232" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:4" ht="24" x14ac:dyDescent="0.3">
       <c r="A232" s="1" t="s">
         <v>724</v>
       </c>
@@ -9648,7 +9647,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="233" spans="1:4" ht="24" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A233" s="1" t="s">
         <v>727</v>
       </c>
@@ -9662,7 +9661,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="234" spans="1:4" ht="24" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A234" s="1" t="s">
         <v>730</v>
       </c>
@@ -9676,7 +9675,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A235" s="1" t="s">
         <v>733</v>
       </c>
@@ -9690,7 +9689,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="236" spans="1:4" ht="24" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:4" ht="24" x14ac:dyDescent="0.3">
       <c r="A236" s="1" t="s">
         <v>736</v>
       </c>
@@ -9704,7 +9703,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="237" spans="1:4" ht="24" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A237" s="1" t="s">
         <v>739</v>
       </c>
@@ -9718,7 +9717,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="238" spans="1:4" ht="24" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:4" ht="24" x14ac:dyDescent="0.3">
       <c r="A238" s="1" t="s">
         <v>742</v>
       </c>
@@ -9732,7 +9731,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="239" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:4" ht="24" x14ac:dyDescent="0.3">
       <c r="A239" s="1" t="s">
         <v>745</v>
       </c>
@@ -9746,7 +9745,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="240" spans="1:4" ht="24" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:4" ht="24" x14ac:dyDescent="0.3">
       <c r="A240" s="1" t="s">
         <v>748</v>
       </c>
@@ -9760,7 +9759,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A241" s="1" t="s">
         <v>751</v>
       </c>
@@ -9774,7 +9773,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A242" s="1" t="s">
         <v>754</v>
       </c>
@@ -9788,7 +9787,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A243" s="1" t="s">
         <v>757</v>
       </c>
@@ -9802,7 +9801,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="244" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:4" ht="24" x14ac:dyDescent="0.3">
       <c r="A244" s="1" t="s">
         <v>760</v>
       </c>
@@ -9816,7 +9815,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="245" spans="1:4" ht="24" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:4" ht="24" x14ac:dyDescent="0.3">
       <c r="A245" s="1" t="s">
         <v>763</v>
       </c>
@@ -9830,7 +9829,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="246" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:4" ht="24" x14ac:dyDescent="0.3">
       <c r="A246" s="1" t="s">
         <v>766</v>
       </c>
@@ -9844,7 +9843,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="247" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:4" ht="36" x14ac:dyDescent="0.3">
       <c r="A247" s="1" t="s">
         <v>769</v>
       </c>
@@ -9858,7 +9857,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="248" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:4" ht="36" x14ac:dyDescent="0.3">
       <c r="A248" s="1" t="s">
         <v>772</v>
       </c>
@@ -9872,7 +9871,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="249" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:4" ht="24" x14ac:dyDescent="0.3">
       <c r="A249" s="1" t="s">
         <v>775</v>
       </c>
@@ -9886,7 +9885,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="250" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:4" ht="36" x14ac:dyDescent="0.3">
       <c r="A250" s="1" t="s">
         <v>778</v>
       </c>
@@ -9900,7 +9899,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="251" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:4" ht="36" x14ac:dyDescent="0.3">
       <c r="A251" s="1" t="s">
         <v>781</v>
       </c>
@@ -9914,7 +9913,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="252" spans="1:4" ht="48" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:4" ht="36" x14ac:dyDescent="0.3">
       <c r="A252" s="1" t="s">
         <v>784</v>
       </c>
@@ -9928,7 +9927,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="253" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:4" ht="36" x14ac:dyDescent="0.3">
       <c r="A253" s="1" t="s">
         <v>787</v>
       </c>
@@ -9942,7 +9941,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="254" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:4" ht="36" x14ac:dyDescent="0.3">
       <c r="A254" s="1" t="s">
         <v>790</v>
       </c>
@@ -9956,7 +9955,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="255" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:4" ht="60" x14ac:dyDescent="0.3">
       <c r="A255" s="1" t="s">
         <v>793</v>
       </c>
@@ -9970,7 +9969,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="256" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:4" ht="36" x14ac:dyDescent="0.3">
       <c r="A256" s="1" t="s">
         <v>796</v>
       </c>
@@ -9984,7 +9983,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="257" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:4" ht="36" x14ac:dyDescent="0.3">
       <c r="A257" s="1" t="s">
         <v>799</v>
       </c>
@@ -9998,7 +9997,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="258" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:4" ht="36" x14ac:dyDescent="0.3">
       <c r="A258" s="1" t="s">
         <v>802</v>
       </c>
@@ -10012,7 +10011,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="259" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:4" ht="36" x14ac:dyDescent="0.3">
       <c r="A259" s="1" t="s">
         <v>805</v>
       </c>
@@ -10026,7 +10025,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="260" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:4" ht="36" x14ac:dyDescent="0.3">
       <c r="A260" s="1" t="s">
         <v>808</v>
       </c>
@@ -10040,7 +10039,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="261" spans="1:4" ht="48" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:4" ht="36" x14ac:dyDescent="0.3">
       <c r="A261" s="1" t="s">
         <v>811</v>
       </c>
@@ -10054,7 +10053,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="262" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:4" ht="36" x14ac:dyDescent="0.3">
       <c r="A262" s="1" t="s">
         <v>814</v>
       </c>
@@ -10068,7 +10067,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="263" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:4" ht="36" x14ac:dyDescent="0.3">
       <c r="A263" s="1" t="s">
         <v>817</v>
       </c>
@@ -10082,7 +10081,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="264" spans="1:4" ht="48" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:4" ht="36" x14ac:dyDescent="0.3">
       <c r="A264" s="1" t="s">
         <v>820</v>
       </c>
@@ -10096,7 +10095,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="265" spans="1:4" ht="24" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:4" ht="24" x14ac:dyDescent="0.3">
       <c r="A265" s="1" t="s">
         <v>823</v>
       </c>
@@ -10110,7 +10109,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="266" spans="1:4" ht="24" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:4" ht="24" x14ac:dyDescent="0.3">
       <c r="A266" s="1" t="s">
         <v>826</v>
       </c>
@@ -10124,7 +10123,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="267" spans="1:4" ht="48" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:4" ht="36" x14ac:dyDescent="0.3">
       <c r="A267" s="1" t="s">
         <v>829</v>
       </c>
@@ -10138,7 +10137,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="268" spans="1:4" ht="48" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:4" ht="36" x14ac:dyDescent="0.3">
       <c r="A268" s="1" t="s">
         <v>832</v>
       </c>
@@ -10152,7 +10151,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="269" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:4" ht="36" x14ac:dyDescent="0.3">
       <c r="A269" s="1" t="s">
         <v>835</v>
       </c>
@@ -10166,7 +10165,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="270" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:4" ht="48" x14ac:dyDescent="0.3">
       <c r="A270" s="1" t="s">
         <v>838</v>
       </c>
@@ -10180,7 +10179,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="271" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:4" ht="24" x14ac:dyDescent="0.3">
       <c r="A271" s="1" t="s">
         <v>841</v>
       </c>
@@ -10194,7 +10193,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="272" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:4" ht="24" x14ac:dyDescent="0.3">
       <c r="A272" s="1" t="s">
         <v>844</v>
       </c>
@@ -10208,7 +10207,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="273" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:4" ht="60" x14ac:dyDescent="0.3">
       <c r="A273" s="1" t="s">
         <v>847</v>
       </c>
@@ -10222,7 +10221,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="274" spans="1:4" ht="24" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:4" ht="24" x14ac:dyDescent="0.3">
       <c r="A274" s="1" t="s">
         <v>850</v>
       </c>
@@ -10236,7 +10235,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="275" spans="1:4" ht="24" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:4" ht="24" x14ac:dyDescent="0.3">
       <c r="A275" s="1" t="s">
         <v>853</v>
       </c>
@@ -10250,7 +10249,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A276" s="1" t="s">
         <v>856</v>
       </c>
@@ -10264,7 +10263,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A277" s="1" t="s">
         <v>859</v>
       </c>
@@ -10278,7 +10277,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="278" spans="1:4" ht="24" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:4" ht="24" x14ac:dyDescent="0.3">
       <c r="A278" s="1" t="s">
         <v>862</v>
       </c>
@@ -10292,7 +10291,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="279" spans="1:4" ht="24" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:4" ht="24" x14ac:dyDescent="0.3">
       <c r="A279" s="1" t="s">
         <v>865</v>
       </c>
@@ -10306,7 +10305,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A280" s="1" t="s">
         <v>868</v>
       </c>
@@ -10320,7 +10319,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="281" spans="1:4" ht="24" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:4" ht="24" x14ac:dyDescent="0.3">
       <c r="A281" s="1" t="s">
         <v>871</v>
       </c>
@@ -10334,7 +10333,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A282" s="1" t="s">
         <v>874</v>
       </c>
@@ -10348,7 +10347,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="283" spans="1:4" ht="24" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:4" ht="24" x14ac:dyDescent="0.3">
       <c r="A283" s="1" t="s">
         <v>877</v>
       </c>
@@ -10362,7 +10361,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A284" s="1" t="s">
         <v>880</v>
       </c>
@@ -10376,7 +10375,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="285" spans="1:4" ht="24" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:4" ht="24" x14ac:dyDescent="0.3">
       <c r="A285" s="1" t="s">
         <v>883</v>
       </c>
@@ -10390,7 +10389,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A286" s="1" t="s">
         <v>886</v>
       </c>
@@ -10404,7 +10403,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="287" spans="1:4" ht="24" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:4" ht="24" x14ac:dyDescent="0.3">
       <c r="A287" s="1" t="s">
         <v>889</v>
       </c>
@@ -10418,7 +10417,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="288" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:4" ht="24" x14ac:dyDescent="0.3">
       <c r="A288" s="1" t="s">
         <v>892</v>
       </c>
@@ -10432,7 +10431,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="289" spans="1:4" ht="24" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:4" ht="24" x14ac:dyDescent="0.3">
       <c r="A289" s="1" t="s">
         <v>895</v>
       </c>
@@ -10446,7 +10445,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="290" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:4" ht="24" x14ac:dyDescent="0.3">
       <c r="A290" s="1" t="s">
         <v>898</v>
       </c>
@@ -10460,7 +10459,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="291" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:4" ht="36" x14ac:dyDescent="0.3">
       <c r="A291" s="1" t="s">
         <v>901</v>
       </c>
@@ -10474,7 +10473,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="292" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:4" ht="36" x14ac:dyDescent="0.3">
       <c r="A292" s="1" t="s">
         <v>904</v>
       </c>
@@ -10488,7 +10487,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="293" spans="1:4" ht="24" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:4" ht="24" x14ac:dyDescent="0.3">
       <c r="A293" s="1" t="s">
         <v>907</v>
       </c>
@@ -10502,7 +10501,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="294" spans="1:4" ht="24" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:4" ht="24" x14ac:dyDescent="0.3">
       <c r="A294" s="1" t="s">
         <v>910</v>
       </c>
@@ -10516,7 +10515,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A295" s="1" t="s">
         <v>913</v>
       </c>
@@ -10530,7 +10529,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A296" s="1" t="s">
         <v>916</v>
       </c>
@@ -10544,7 +10543,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A297" s="1" t="s">
         <v>919</v>
       </c>
@@ -10558,7 +10557,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A298" s="1" t="s">
         <v>922</v>
       </c>
@@ -10572,7 +10571,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A299" s="1" t="s">
         <v>925</v>
       </c>
@@ -10586,7 +10585,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A300" s="1" t="s">
         <v>927</v>
       </c>
@@ -10600,7 +10599,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A301" s="1" t="s">
         <v>929</v>
       </c>
@@ -10614,7 +10613,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A302" s="1" t="s">
         <v>932</v>
       </c>
@@ -10628,7 +10627,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A303" s="1" t="s">
         <v>935</v>
       </c>
@@ -10642,7 +10641,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A304" s="1" t="s">
         <v>938</v>
       </c>
@@ -10656,7 +10655,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="305" spans="1:4" ht="24" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A305" s="1" t="s">
         <v>941</v>
       </c>
@@ -10670,7 +10669,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A306" s="1" t="s">
         <v>944</v>
       </c>
@@ -10684,7 +10683,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A307" s="1" t="s">
         <v>947</v>
       </c>
@@ -10698,7 +10697,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A308" s="1" t="s">
         <v>950</v>
       </c>
@@ -10712,7 +10711,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A309" s="1" t="s">
         <v>953</v>
       </c>
@@ -10726,7 +10725,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A310" s="1" t="s">
         <v>956</v>
       </c>
@@ -10740,7 +10739,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A311" s="1" t="s">
         <v>959</v>
       </c>
@@ -10754,7 +10753,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A312" s="1" t="s">
         <v>962</v>
       </c>
@@ -10768,7 +10767,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A313" s="1" t="s">
         <v>965</v>
       </c>
@@ -10782,7 +10781,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A314" s="1" t="s">
         <v>968</v>
       </c>
@@ -10796,7 +10795,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="315" spans="1:4" ht="24" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A315" s="1" t="s">
         <v>971</v>
       </c>
@@ -10810,7 +10809,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A316" s="1" t="s">
         <v>974</v>
       </c>
@@ -10824,7 +10823,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="317" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A317" s="1" t="s">
         <v>977</v>
       </c>
@@ -10838,7 +10837,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A318" s="1" t="s">
         <v>980</v>
       </c>
@@ -10852,7 +10851,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A319" s="1" t="s">
         <v>983</v>
       </c>
@@ -10866,7 +10865,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A320" s="1" t="s">
         <v>986</v>
       </c>
@@ -10880,7 +10879,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="321" spans="1:4" ht="24" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A321" s="1" t="s">
         <v>989</v>
       </c>
@@ -10894,7 +10893,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="322" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A322" s="1" t="s">
         <v>992</v>
       </c>
@@ -10908,7 +10907,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="323" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A323" s="1" t="s">
         <v>995</v>
       </c>
@@ -10922,7 +10921,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="324" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A324" s="1" t="s">
         <v>998</v>
       </c>
@@ -10936,7 +10935,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="325" spans="1:4" ht="24" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A325" s="1" t="s">
         <v>1001</v>
       </c>
@@ -10950,7 +10949,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="326" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A326" s="1" t="s">
         <v>1004</v>
       </c>
@@ -10964,7 +10963,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="327" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A327" s="1" t="s">
         <v>1007</v>
       </c>
@@ -10978,7 +10977,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="328" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A328" s="1" t="s">
         <v>1010</v>
       </c>
@@ -10992,7 +10991,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="329" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A329" s="1" t="s">
         <v>1013</v>
       </c>
@@ -11006,7 +11005,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="330" spans="1:4" ht="24" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A330" s="1" t="s">
         <v>1016</v>
       </c>
@@ -11020,7 +11019,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="331" spans="1:4" ht="24" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A331" s="1" t="s">
         <v>1019</v>
       </c>
@@ -11034,7 +11033,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="332" spans="1:4" ht="24" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:4" ht="24" x14ac:dyDescent="0.3">
       <c r="A332" s="1" t="s">
         <v>1022</v>
       </c>
@@ -11048,7 +11047,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="333" spans="1:4" ht="24" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A333" s="1" t="s">
         <v>1025</v>
       </c>
@@ -11062,7 +11061,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="334" spans="1:4" ht="24" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A334" s="1" t="s">
         <v>1028</v>
       </c>
@@ -11076,7 +11075,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="335" spans="1:4" ht="24" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:4" ht="24" x14ac:dyDescent="0.3">
       <c r="A335" s="1" t="s">
         <v>1031</v>
       </c>
@@ -11090,7 +11089,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="336" spans="1:4" ht="24" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:4" ht="24" x14ac:dyDescent="0.3">
       <c r="A336" s="1" t="s">
         <v>1034</v>
       </c>
@@ -11104,7 +11103,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="337" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A337" s="1" t="s">
         <v>1037</v>
       </c>
@@ -11118,7 +11117,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="338" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A338" s="1" t="s">
         <v>1040</v>
       </c>
@@ -11132,7 +11131,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="339" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A339" s="1" t="s">
         <v>1043</v>
       </c>
@@ -11146,7 +11145,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="340" spans="1:4" ht="24" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A340" s="1" t="s">
         <v>1046</v>
       </c>
@@ -11160,7 +11159,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="341" spans="1:4" ht="24" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A341" s="1" t="s">
         <v>1049</v>
       </c>
@@ -11174,7 +11173,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="342" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A342" s="1" t="s">
         <v>1052</v>
       </c>
@@ -11188,7 +11187,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="343" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A343" s="1" t="s">
         <v>1055</v>
       </c>
@@ -11202,7 +11201,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="344" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A344" s="1" t="s">
         <v>1058</v>
       </c>
@@ -11216,7 +11215,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="345" spans="1:4" ht="24" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:4" ht="24" x14ac:dyDescent="0.3">
       <c r="A345" s="1" t="s">
         <v>1061</v>
       </c>
@@ -11230,7 +11229,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="346" spans="1:4" ht="24" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A346" s="1" t="s">
         <v>1064</v>
       </c>
@@ -11244,7 +11243,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="347" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A347" s="1" t="s">
         <v>1067</v>
       </c>
@@ -11258,7 +11257,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="348" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A348" s="1" t="s">
         <v>1070</v>
       </c>
@@ -11272,7 +11271,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="349" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A349" s="1" t="s">
         <v>1073</v>
       </c>
@@ -11286,7 +11285,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="350" spans="1:4" ht="24" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A350" s="1" t="s">
         <v>1076</v>
       </c>
@@ -11300,7 +11299,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="351" spans="1:4" ht="24" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A351" s="1" t="s">
         <v>1079</v>
       </c>
@@ -11314,7 +11313,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="352" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A352" s="1" t="s">
         <v>1082</v>
       </c>
@@ -11328,7 +11327,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="353" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A353" s="1" t="s">
         <v>1085</v>
       </c>
@@ -11342,7 +11341,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="354" spans="1:4" ht="24" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:4" ht="24" x14ac:dyDescent="0.3">
       <c r="A354" s="1" t="s">
         <v>1088</v>
       </c>
@@ -11356,7 +11355,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="355" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A355" s="1" t="s">
         <v>1091</v>
       </c>
@@ -11370,7 +11369,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="356" spans="1:4" ht="48" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:4" ht="36" x14ac:dyDescent="0.3">
       <c r="A356" s="1" t="s">
         <v>1094</v>
       </c>
@@ -11384,7 +11383,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="357" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A357" s="1" t="s">
         <v>1097</v>
       </c>
@@ -11398,7 +11397,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="358" spans="1:4" ht="24" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:4" ht="24" x14ac:dyDescent="0.3">
       <c r="A358" s="1" t="s">
         <v>1100</v>
       </c>
@@ -11412,7 +11411,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="359" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A359" s="1" t="s">
         <v>1103</v>
       </c>
@@ -11426,7 +11425,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="360" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A360" s="1" t="s">
         <v>1106</v>
       </c>
@@ -11440,7 +11439,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="361" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:4" ht="36" x14ac:dyDescent="0.3">
       <c r="A361" s="1" t="s">
         <v>1109</v>
       </c>
@@ -11454,7 +11453,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="362" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A362" s="1" t="s">
         <v>1112</v>
       </c>
@@ -11468,7 +11467,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="363" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A363" s="1" t="s">
         <v>1115</v>
       </c>
@@ -11482,7 +11481,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="364" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A364" s="1" t="s">
         <v>1118</v>
       </c>
@@ -11496,7 +11495,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="365" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A365" s="1" t="s">
         <v>1121</v>
       </c>
@@ -11510,7 +11509,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="366" spans="1:4" ht="24" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:4" ht="24" x14ac:dyDescent="0.3">
       <c r="A366" s="1" t="s">
         <v>1124</v>
       </c>
@@ -11524,7 +11523,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="367" spans="1:4" ht="24" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A367" s="1" t="s">
         <v>1127</v>
       </c>
@@ -11538,7 +11537,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="368" spans="1:4" ht="24" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A368" s="1" t="s">
         <v>1130</v>
       </c>
@@ -11552,7 +11551,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="369" spans="1:4" ht="24" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:4" ht="24" x14ac:dyDescent="0.3">
       <c r="A369" s="1" t="s">
         <v>1133</v>
       </c>
@@ -11566,7 +11565,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="370" spans="1:4" ht="24" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:4" ht="24" x14ac:dyDescent="0.3">
       <c r="A370" s="1" t="s">
         <v>1136</v>
       </c>
@@ -11580,7 +11579,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="371" spans="1:4" ht="24" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:4" ht="24" x14ac:dyDescent="0.3">
       <c r="A371" s="1" t="s">
         <v>1139</v>
       </c>
@@ -11594,7 +11593,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="372" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:4" ht="24" x14ac:dyDescent="0.3">
       <c r="A372" s="1" t="s">
         <v>1142</v>
       </c>
